--- a/Data/model_outputs_baseline/energy/energy_use_vector_AB.xlsx
+++ b/Data/model_outputs_baseline/energy/energy_use_vector_AB.xlsx
@@ -448,7 +448,7 @@
         <v>1600</v>
       </c>
       <c r="B2" t="n">
-        <v>326912735.5574411</v>
+        <v>298535599.0698462</v>
       </c>
     </row>
     <row r="3">
@@ -456,7 +456,7 @@
         <v>1601</v>
       </c>
       <c r="B3" t="n">
-        <v>327294736.3519116</v>
+        <v>298884440.897094</v>
       </c>
     </row>
     <row r="4">
@@ -464,7 +464,7 @@
         <v>1602</v>
       </c>
       <c r="B4" t="n">
-        <v>327682110.5614924</v>
+        <v>299238189.7087583</v>
       </c>
     </row>
     <row r="5">
@@ -472,7 +472,7 @@
         <v>1603</v>
       </c>
       <c r="B5" t="n">
-        <v>328074932.7435918</v>
+        <v>299596913.5904114</v>
       </c>
     </row>
     <row r="6">
@@ -480,7 +480,7 @@
         <v>1604</v>
       </c>
       <c r="B6" t="n">
-        <v>328473278.4322951</v>
+        <v>299960681.519523</v>
       </c>
     </row>
     <row r="7">
@@ -488,7 +488,7 @@
         <v>1605</v>
       </c>
       <c r="B7" t="n">
-        <v>328877224.1476722</v>
+        <v>300329563.3739607</v>
       </c>
     </row>
     <row r="8">
@@ -496,7 +496,7 @@
         <v>1606</v>
       </c>
       <c r="B8" t="n">
-        <v>329286847.4049901</v>
+        <v>300703629.9404035</v>
       </c>
     </row>
     <row r="9">
@@ -504,7 +504,7 @@
         <v>1607</v>
       </c>
       <c r="B9" t="n">
-        <v>329702226.7238257</v>
+        <v>301082952.9226615</v>
       </c>
     </row>
     <row r="10">
@@ -512,7 +512,7 @@
         <v>1608</v>
       </c>
       <c r="B10" t="n">
-        <v>330123441.6370693</v>
+        <v>301467604.9499003</v>
       </c>
     </row>
     <row r="11">
@@ -520,7 +520,7 @@
         <v>1609</v>
       </c>
       <c r="B11" t="n">
-        <v>330550572.6998122</v>
+        <v>301857659.5847552</v>
       </c>
     </row>
     <row r="12">
@@ -528,7 +528,7 @@
         <v>1610</v>
       </c>
       <c r="B12" t="n">
-        <v>330983701.4981095</v>
+        <v>302253191.3313348</v>
       </c>
     </row>
     <row r="13">
@@ -536,7 +536,7 @@
         <v>1611</v>
       </c>
       <c r="B13" t="n">
-        <v>331422910.657618</v>
+        <v>302654275.6431074</v>
       </c>
     </row>
     <row r="14">
@@ -544,7 +544,7 @@
         <v>1612</v>
       </c>
       <c r="B14" t="n">
-        <v>331868283.8520921</v>
+        <v>303060988.9306619</v>
       </c>
     </row>
     <row r="15">
@@ -552,7 +552,7 @@
         <v>1613</v>
       </c>
       <c r="B15" t="n">
-        <v>332319905.8117438</v>
+        <v>303473408.5693396</v>
       </c>
     </row>
     <row r="16">
@@ -560,7 +560,7 @@
         <v>1614</v>
       </c>
       <c r="B16" t="n">
-        <v>332777862.3314516</v>
+        <v>303891612.9067319</v>
       </c>
     </row>
     <row r="17">
@@ -568,7 +568,7 @@
         <v>1615</v>
       </c>
       <c r="B17" t="n">
-        <v>333242240.2788203</v>
+        <v>304315681.2700402</v>
       </c>
     </row>
     <row r="18">
@@ -576,7 +576,7 @@
         <v>1616</v>
       </c>
       <c r="B18" t="n">
-        <v>333713127.6020839</v>
+        <v>304745693.9732935</v>
       </c>
     </row>
     <row r="19">
@@ -584,7 +584,7 @@
         <v>1617</v>
       </c>
       <c r="B19" t="n">
-        <v>334190613.3378509</v>
+        <v>305181732.3244193</v>
       </c>
     </row>
     <row r="20">
@@ -592,7 +592,7 @@
         <v>1618</v>
       </c>
       <c r="B20" t="n">
-        <v>334674787.6186865</v>
+        <v>305623878.6321704</v>
       </c>
     </row>
     <row r="21">
@@ -600,7 +600,7 @@
         <v>1619</v>
       </c>
       <c r="B21" t="n">
-        <v>335165741.6805334</v>
+        <v>306072216.2128989</v>
       </c>
     </row>
     <row r="22">
@@ -608,7 +608,7 @@
         <v>1620</v>
       </c>
       <c r="B22" t="n">
-        <v>335663567.8699684</v>
+        <v>306526829.3971856</v>
       </c>
     </row>
     <row r="23">
@@ -616,7 +616,7 @@
         <v>1621</v>
       </c>
       <c r="B23" t="n">
-        <v>336168359.6512963</v>
+        <v>306987803.5363156</v>
       </c>
     </row>
     <row r="24">
@@ -624,7 +624,7 @@
         <v>1622</v>
       </c>
       <c r="B24" t="n">
-        <v>336680211.6134821</v>
+        <v>307455225.0086104</v>
       </c>
     </row>
     <row r="25">
@@ -632,7 +632,7 @@
         <v>1623</v>
       </c>
       <c r="B25" t="n">
-        <v>337199219.4769249</v>
+        <v>307929181.2256132</v>
       </c>
     </row>
     <row r="26">
@@ -640,7 +640,7 @@
         <v>1624</v>
       </c>
       <c r="B26" t="n">
-        <v>337725480.1000777</v>
+        <v>308409760.6381342</v>
       </c>
     </row>
     <row r="27">
@@ -648,7 +648,7 @@
         <v>1625</v>
       </c>
       <c r="B27" t="n">
-        <v>338259091.4859187</v>
+        <v>308897052.74216</v>
       </c>
     </row>
     <row r="28">
@@ -656,7 +656,7 @@
         <v>1626</v>
       </c>
       <c r="B28" t="n">
-        <v>338800152.7882811</v>
+        <v>309391148.0846338</v>
       </c>
     </row>
     <row r="29">
@@ -664,7 +664,7 @@
         <v>1627</v>
       </c>
       <c r="B29" t="n">
-        <v>339348764.3180485</v>
+        <v>309892138.2691134</v>
       </c>
     </row>
     <row r="30">
@@ -672,7 +672,7 @@
         <v>1628</v>
       </c>
       <c r="B30" t="n">
-        <v>339905027.5492318</v>
+        <v>310400115.9613215</v>
       </c>
     </row>
     <row r="31">
@@ -680,7 +680,7 @@
         <v>1629</v>
       </c>
       <c r="B31" t="n">
-        <v>340469045.1249334</v>
+        <v>310915174.8945893</v>
       </c>
     </row>
     <row r="32">
@@ -688,7 +688,7 @@
         <v>1630</v>
       </c>
       <c r="B32" t="n">
-        <v>341040920.8632144</v>
+        <v>311437409.8752185</v>
       </c>
     </row>
     <row r="33">
@@ -696,7 +696,7 @@
         <v>1631</v>
       </c>
       <c r="B33" t="n">
-        <v>341620759.762887</v>
+        <v>311966916.787767</v>
       </c>
     </row>
     <row r="34">
@@ -704,7 +704,7 @@
         <v>1632</v>
       </c>
       <c r="B34" t="n">
-        <v>342208668.0092393</v>
+        <v>312503792.6002786</v>
       </c>
     </row>
     <row r="35">
@@ -712,7 +712,7 @@
         <v>1633</v>
       </c>
       <c r="B35" t="n">
-        <v>342804752.9797228</v>
+        <v>313048135.3694781</v>
       </c>
     </row>
     <row r="36">
@@ -720,7 +720,7 @@
         <v>1634</v>
       </c>
       <c r="B36" t="n">
-        <v>343409123.2496204</v>
+        <v>313600044.2459438</v>
       </c>
     </row>
     <row r="37">
@@ -728,7 +728,7 @@
         <v>1635</v>
       </c>
       <c r="B37" t="n">
-        <v>344021888.5977187</v>
+        <v>314159619.4792911</v>
       </c>
     </row>
     <row r="38">
@@ -736,7 +736,7 @@
         <v>1636</v>
       </c>
       <c r="B38" t="n">
-        <v>344643160.0120139</v>
+        <v>314726962.4233807</v>
       </c>
     </row>
     <row r="39">
@@ -744,7 +744,7 @@
         <v>1637</v>
       </c>
       <c r="B39" t="n">
-        <v>345273049.6954811</v>
+        <v>315302175.5415884</v>
       </c>
     </row>
     <row r="40">
@@ -752,7 +752,7 @@
         <v>1638</v>
       </c>
       <c r="B40" t="n">
-        <v>345911671.0719363</v>
+        <v>315885362.4121577</v>
       </c>
     </row>
     <row r="41">
@@ -760,7 +760,7 @@
         <v>1639</v>
       </c>
       <c r="B41" t="n">
-        <v>346559138.7920294</v>
+        <v>316476627.7336714</v>
       </c>
     </row>
     <row r="42">
@@ -768,7 +768,7 @@
         <v>1640</v>
       </c>
       <c r="B42" t="n">
-        <v>347215568.7393976</v>
+        <v>317076077.3306741</v>
       </c>
     </row>
     <row r="43">
@@ -776,7 +776,7 @@
         <v>1641</v>
       </c>
       <c r="B43" t="n">
-        <v>347881078.0370315</v>
+        <v>317683818.1594827</v>
       </c>
     </row>
     <row r="44">
@@ -784,7 +784,7 @@
         <v>1642</v>
       </c>
       <c r="B44" t="n">
-        <v>348555785.0538821</v>
+        <v>318299958.3142204</v>
       </c>
     </row>
     <row r="45">
@@ -792,7 +792,7 @@
         <v>1643</v>
       </c>
       <c r="B45" t="n">
-        <v>349239809.4117626</v>
+        <v>318924607.0331208</v>
       </c>
     </row>
     <row r="46">
@@ -800,7 +800,7 @@
         <v>1644</v>
       </c>
       <c r="B46" t="n">
-        <v>349933271.9925897</v>
+        <v>319557874.7051392</v>
       </c>
     </row>
     <row r="47">
@@ -808,7 +808,7 @@
         <v>1645</v>
       </c>
       <c r="B47" t="n">
-        <v>350636294.9460109</v>
+        <v>320199872.8769194</v>
       </c>
     </row>
     <row r="48">
@@ -816,7 +816,7 @@
         <v>1646</v>
       </c>
       <c r="B48" t="n">
-        <v>351349001.6974797</v>
+        <v>320850714.2601653</v>
       </c>
     </row>
     <row r="49">
@@ -824,7 +824,7 @@
         <v>1647</v>
       </c>
       <c r="B49" t="n">
-        <v>352071516.95682</v>
+        <v>321510512.7394643</v>
       </c>
     </row>
     <row r="50">
@@ -832,7 +832,7 @@
         <v>1648</v>
       </c>
       <c r="B50" t="n">
-        <v>352803966.7273498</v>
+        <v>322179383.3806182</v>
       </c>
     </row>
     <row r="51">
@@ -840,7 +840,7 @@
         <v>1649</v>
       </c>
       <c r="B51" t="n">
-        <v>353546478.3156167</v>
+        <v>322857442.4395335</v>
       </c>
     </row>
     <row r="52">
@@ -848,7 +848,7 @@
         <v>1650</v>
       </c>
       <c r="B52" t="n">
-        <v>354299180.34181</v>
+        <v>323544807.3717306</v>
       </c>
     </row>
     <row r="53">
@@ -856,7 +856,7 @@
         <v>1651</v>
       </c>
       <c r="B53" t="n">
-        <v>355062202.7509159</v>
+        <v>324241596.842528</v>
       </c>
     </row>
     <row r="54">
@@ -864,7 +864,7 @@
         <v>1652</v>
       </c>
       <c r="B54" t="n">
-        <v>355835676.8246735</v>
+        <v>324947930.7379651</v>
       </c>
     </row>
     <row r="55">
@@ -872,7 +872,7 @@
         <v>1653</v>
       </c>
       <c r="B55" t="n">
-        <v>356619735.1944167</v>
+        <v>325663930.1765243</v>
       </c>
     </row>
     <row r="56">
@@ -880,7 +880,7 @@
         <v>1654</v>
       </c>
       <c r="B56" t="n">
-        <v>357414511.8548539</v>
+        <v>326389717.5217185</v>
       </c>
     </row>
     <row r="57">
@@ -888,7 +888,7 @@
         <v>1655</v>
       </c>
       <c r="B57" t="n">
-        <v>358220142.178871</v>
+        <v>327125416.3956066</v>
       </c>
     </row>
     <row r="58">
@@ -896,7 +896,7 @@
         <v>1656</v>
       </c>
       <c r="B58" t="n">
-        <v>359036762.9334284</v>
+        <v>327871151.6933118</v>
       </c>
     </row>
     <row r="59">
@@ -904,7 +904,7 @@
         <v>1657</v>
       </c>
       <c r="B59" t="n">
-        <v>359864512.2966218</v>
+        <v>328627049.5986022</v>
       </c>
     </row>
     <row r="60">
@@ -912,7 +912,7 @@
         <v>1658</v>
       </c>
       <c r="B60" t="n">
-        <v>360703529.8759928</v>
+        <v>329393237.60061</v>
       </c>
     </row>
     <row r="61">
@@ -920,7 +920,7 @@
         <v>1659</v>
       </c>
       <c r="B61" t="n">
-        <v>361553956.7281576</v>
+        <v>330169844.511758</v>
       </c>
     </row>
     <row r="62">
@@ -928,7 +928,7 @@
         <v>1660</v>
       </c>
       <c r="B62" t="n">
-        <v>362415935.3798388</v>
+        <v>330957000.486964</v>
       </c>
     </row>
     <row r="63">
@@ -936,7 +936,7 @@
         <v>1661</v>
       </c>
       <c r="B63" t="n">
-        <v>363289609.8503712</v>
+        <v>331754837.0441962</v>
       </c>
     </row>
     <row r="64">
@@ -944,7 +944,7 @@
         <v>1662</v>
       </c>
       <c r="B64" t="n">
-        <v>364175125.6757752</v>
+        <v>332563487.0864527</v>
       </c>
     </row>
     <row r="65">
@@ -952,7 +952,7 @@
         <v>1663</v>
       </c>
       <c r="B65" t="n">
-        <v>365072629.9344537</v>
+        <v>333383084.9252321</v>
       </c>
     </row>
     <row r="66">
@@ -960,7 +960,7 @@
         <v>1664</v>
       </c>
       <c r="B66" t="n">
-        <v>365982271.2746154</v>
+        <v>334213766.3055733</v>
       </c>
     </row>
     <row r="67">
@@ -968,7 +968,7 @@
         <v>1665</v>
       </c>
       <c r="B67" t="n">
-        <v>366904199.9434848</v>
+        <v>335055668.4327305</v>
       </c>
     </row>
     <row r="68">
@@ -976,7 +976,7 @@
         <v>1666</v>
       </c>
       <c r="B68" t="n">
-        <v>367838567.8183841</v>
+        <v>335908930.000558</v>
       </c>
     </row>
     <row r="69">
@@ -984,7 +984,7 @@
         <v>1667</v>
       </c>
       <c r="B69" t="n">
-        <v>368785528.4397575</v>
+        <v>336773691.2216691</v>
       </c>
     </row>
     <row r="70">
@@ -992,7 +992,7 @@
         <v>1668</v>
       </c>
       <c r="B70" t="n">
-        <v>369745237.0462228</v>
+        <v>337650093.8594401</v>
       </c>
     </row>
     <row r="71">
@@ -1000,7 +1000,7 @@
         <v>1669</v>
       </c>
       <c r="B71" t="n">
-        <v>370717850.6117018</v>
+        <v>338538281.2619244</v>
       </c>
     </row>
     <row r="72">
@@ -1008,7 +1008,7 @@
         <v>1670</v>
       </c>
       <c r="B72" t="n">
-        <v>371703527.8847236</v>
+        <v>339438398.3977386</v>
       </c>
     </row>
     <row r="73">
@@ -1016,7 +1016,7 @@
         <v>1671</v>
       </c>
       <c r="B73" t="n">
-        <v>372702429.429948</v>
+        <v>340350591.893984</v>
       </c>
     </row>
     <row r="74">
@@ -1024,7 +1024,7 @@
         <v>1672</v>
       </c>
       <c r="B74" t="n">
-        <v>373714717.6719838</v>
+        <v>341275010.076262</v>
       </c>
     </row>
     <row r="75">
@@ -1032,7 +1032,7 @@
         <v>1673</v>
       </c>
       <c r="B75" t="n">
-        <v>374740556.9415571</v>
+        <v>342211803.010833</v>
       </c>
     </row>
     <row r="76">
@@ -1040,7 +1040,7 @@
         <v>1674</v>
       </c>
       <c r="B76" t="n">
-        <v>375780113.5240916</v>
+        <v>343161122.5489807</v>
       </c>
     </row>
     <row r="77">
@@ -1048,7 +1048,7 @@
         <v>1675</v>
       </c>
       <c r="B77" t="n">
-        <v>376833555.7107466</v>
+        <v>344123122.3736196</v>
       </c>
     </row>
     <row r="78">
@@ -1056,7 +1056,7 @@
         <v>1676</v>
       </c>
       <c r="B78" t="n">
-        <v>377901053.8519656</v>
+        <v>345097958.0481955</v>
       </c>
     </row>
     <row r="79">
@@ -1064,7 +1064,7 @@
         <v>1677</v>
       </c>
       <c r="B79" t="n">
-        <v>378982780.4135758</v>
+        <v>346085787.0679168</v>
       </c>
     </row>
     <row r="80">
@@ -1072,7 +1072,7 @@
         <v>1678</v>
       </c>
       <c r="B80" t="n">
-        <v>380078910.0354803</v>
+        <v>347086768.9133491</v>
       </c>
     </row>
     <row r="81">
@@ -1080,7 +1080,7 @@
         <v>1679</v>
       </c>
       <c r="B81" t="n">
-        <v>381189619.5929689</v>
+        <v>348101065.1064045</v>
       </c>
     </row>
     <row r="82">
@@ -1088,7 +1088,7 @@
         <v>1680</v>
       </c>
       <c r="B82" t="n">
-        <v>382315088.2606759</v>
+        <v>349128839.2687522</v>
       </c>
     </row>
     <row r="83">
@@ -1096,7 +1096,7 @@
         <v>1681</v>
       </c>
       <c r="B83" t="n">
-        <v>383455497.5792099</v>
+        <v>350170257.1826581</v>
       </c>
     </row>
     <row r="84">
@@ -1104,7 +1104,7 @@
         <v>1682</v>
       </c>
       <c r="B84" t="n">
-        <v>384611031.5244607</v>
+        <v>351225486.8542789</v>
       </c>
     </row>
     <row r="85">
@@ -1112,7 +1112,7 @@
         <v>1683</v>
       </c>
       <c r="B85" t="n">
-        <v>385781876.5795924</v>
+        <v>352294698.5794067</v>
       </c>
     </row>
     <row r="86">
@@ -1120,7 +1120,7 @@
         <v>1684</v>
       </c>
       <c r="B86" t="n">
-        <v>386968221.8097267</v>
+        <v>353378065.0116686</v>
       </c>
     </row>
     <row r="87">
@@ -1128,7 +1128,7 @@
         <v>1685</v>
       </c>
       <c r="B87" t="n">
-        <v>388170258.9392987</v>
+        <v>354475761.2331666</v>
       </c>
     </row>
     <row r="88">
@@ -1136,7 +1136,7 @@
         <v>1686</v>
       </c>
       <c r="B88" t="n">
-        <v>389388182.4320759</v>
+        <v>355587964.8275522</v>
       </c>
     </row>
     <row r="89">
@@ -1144,7 +1144,7 @@
         <v>1687</v>
       </c>
       <c r="B89" t="n">
-        <v>390622189.5738157</v>
+        <v>356714855.9555092</v>
       </c>
     </row>
     <row r="90">
@@ -1152,7 +1152,7 @@
         <v>1688</v>
       </c>
       <c r="B90" t="n">
-        <v>391872480.5575238</v>
+        <v>357856617.4326103</v>
       </c>
     </row>
     <row r="91">
@@ -1160,7 +1160,7 @@
         <v>1689</v>
       </c>
       <c r="B91" t="n">
-        <v>393139258.5712802</v>
+        <v>359013434.8095173</v>
       </c>
     </row>
     <row r="92">
@@ -1168,7 +1168,7 @@
         <v>1690</v>
       </c>
       <c r="B92" t="n">
-        <v>394422729.8885763</v>
+        <v>360185496.4544837</v>
       </c>
     </row>
     <row r="93">
@@ -1176,7 +1176,7 @@
         <v>1691</v>
       </c>
       <c r="B93" t="n">
-        <v>395723103.9611133</v>
+        <v>361372993.6380906</v>
       </c>
     </row>
     <row r="94">
@@ -1184,7 +1184,7 @@
         <v>1692</v>
       </c>
       <c r="B94" t="n">
-        <v>397040593.5139883</v>
+        <v>362576120.6201741</v>
       </c>
     </row>
     <row r="95">
@@ -1192,7 +1192,7 @@
         <v>1693</v>
       </c>
       <c r="B95" t="n">
-        <v>398375414.6431987</v>
+        <v>363795074.7388634</v>
       </c>
     </row>
     <row r="96">
@@ -1200,7 +1200,7 @@
         <v>1694</v>
       </c>
       <c r="B96" t="n">
-        <v>399727786.9153782</v>
+        <v>365030056.5016638</v>
       </c>
     </row>
     <row r="97">
@@ -1208,7 +1208,7 @@
         <v>1695</v>
       </c>
       <c r="B97" t="n">
-        <v>401097933.4696749</v>
+        <v>366281269.6784863</v>
       </c>
     </row>
     <row r="98">
@@ -1216,7 +1216,7 @@
         <v>1696</v>
       </c>
       <c r="B98" t="n">
-        <v>402486081.1216671</v>
+        <v>367548921.3965454</v>
       </c>
     </row>
     <row r="99">
@@ -1224,7 +1224,7 @@
         <v>1697</v>
       </c>
       <c r="B99" t="n">
-        <v>403892460.4692128</v>
+        <v>368833222.2370222</v>
       </c>
     </row>
     <row r="100">
@@ -1232,7 +1232,7 @@
         <v>1698</v>
       </c>
       <c r="B100" t="n">
-        <v>405317306.0001127</v>
+        <v>370134386.3333797</v>
       </c>
     </row>
     <row r="101">
@@ -1240,7 +1240,7 @@
         <v>1699</v>
       </c>
       <c r="B101" t="n">
-        <v>406760856.2014624</v>
+        <v>371452631.4712217</v>
       </c>
     </row>
     <row r="102">
@@ -1248,7 +1248,7 @@
         <v>1700</v>
       </c>
       <c r="B102" t="n">
-        <v>408223353.6705585</v>
+        <v>372788179.1895759</v>
       </c>
     </row>
     <row r="103">
@@ -1256,7 +1256,7 @@
         <v>1701</v>
       </c>
       <c r="B103" t="n">
-        <v>409705045.2272268</v>
+        <v>374141254.8834684</v>
       </c>
     </row>
     <row r="104">
@@ -1264,7 +1264,7 @@
         <v>1702</v>
       </c>
       <c r="B104" t="n">
-        <v>411206182.0274086</v>
+        <v>375512087.9076511</v>
       </c>
     </row>
     <row r="105">
@@ -1272,7 +1272,7 @@
         <v>1703</v>
       </c>
       <c r="B105" t="n">
-        <v>412727019.6778744</v>
+        <v>376900911.6813586</v>
       </c>
     </row>
     <row r="106">
@@ -1280,7 +1280,7 @@
         <v>1704</v>
       </c>
       <c r="B106" t="n">
-        <v>414267818.3518798</v>
+        <v>378307963.7939225</v>
       </c>
     </row>
     <row r="107">
@@ -1288,7 +1288,7 @@
         <v>1705</v>
       </c>
       <c r="B107" t="n">
-        <v>415828842.905616</v>
+        <v>379733486.1111175</v>
       </c>
     </row>
     <row r="108">
@@ -1296,7 +1296,7 @@
         <v>1706</v>
       </c>
       <c r="B108" t="n">
-        <v>417410362.9952725</v>
+        <v>381177724.882059</v>
       </c>
     </row>
     <row r="109">
@@ -1304,7 +1304,7 @@
         <v>1707</v>
       </c>
       <c r="B109" t="n">
-        <v>419012653.1945416</v>
+        <v>382640930.84651</v>
       </c>
     </row>
     <row r="110">
@@ -1312,7 +1312,7 @@
         <v>1708</v>
       </c>
       <c r="B110" t="n">
-        <v>420635993.1123802</v>
+        <v>384123359.3424188</v>
       </c>
     </row>
     <row r="111">
@@ -1320,7 +1320,7 @@
         <v>1709</v>
       </c>
       <c r="B111" t="n">
-        <v>422280667.5108452</v>
+        <v>385625270.4135289</v>
       </c>
     </row>
     <row r="112">
@@ -1328,7 +1328,7 @@
         <v>1710</v>
       </c>
       <c r="B112" t="n">
-        <v>423946966.4228181</v>
+        <v>387146928.9168817</v>
       </c>
     </row>
     <row r="113">
@@ -1336,7 +1336,7 @@
         <v>1711</v>
       </c>
       <c r="B113" t="n">
-        <v>425635185.269425</v>
+        <v>388688604.6300455</v>
       </c>
     </row>
     <row r="114">
@@ -1344,7 +1344,7 @@
         <v>1712</v>
       </c>
       <c r="B114" t="n">
-        <v>427345624.9769635</v>
+        <v>390250572.3578918</v>
       </c>
     </row>
     <row r="115">
@@ -1352,7 +1352,7 @@
         <v>1713</v>
       </c>
       <c r="B115" t="n">
-        <v>429078592.0931429</v>
+        <v>391833112.0387484</v>
       </c>
     </row>
     <row r="116">
@@ -1360,7 +1360,7 @@
         <v>1714</v>
       </c>
       <c r="B116" t="n">
-        <v>430834398.9024501</v>
+        <v>393436508.8497466</v>
       </c>
     </row>
     <row r="117">
@@ -1368,7 +1368,7 @@
         <v>1715</v>
       </c>
       <c r="B117" t="n">
-        <v>432613363.5404418</v>
+        <v>395061053.3111956</v>
       </c>
     </row>
     <row r="118">
@@ -1376,7 +1376,7 @@
         <v>1716</v>
       </c>
       <c r="B118" t="n">
-        <v>434415810.1067816</v>
+        <v>396707041.389806</v>
       </c>
     </row>
     <row r="119">
@@ -1384,7 +1384,7 @@
         <v>1717</v>
       </c>
       <c r="B119" t="n">
-        <v>436242068.7768289</v>
+        <v>398374774.6005955</v>
       </c>
     </row>
     <row r="120">
@@ -1392,7 +1392,7 @@
         <v>1718</v>
       </c>
       <c r="B120" t="n">
-        <v>438092475.9116005</v>
+        <v>400064560.1073002</v>
       </c>
     </row>
     <row r="121">
@@ -1400,7 +1400,7 @@
         <v>1719</v>
       </c>
       <c r="B121" t="n">
-        <v>439967374.1659167</v>
+        <v>401776710.8211377</v>
       </c>
     </row>
     <row r="122">
@@ -1408,7 +1408,7 @@
         <v>1720</v>
       </c>
       <c r="B122" t="n">
-        <v>441867112.594568</v>
+        <v>403511545.4977571</v>
       </c>
     </row>
     <row r="123">
@@ -1416,7 +1416,7 @@
         <v>1721</v>
       </c>
       <c r="B123" t="n">
-        <v>443792046.7563248</v>
+        <v>405269388.832218</v>
       </c>
     </row>
     <row r="124">
@@ -1424,7 +1424,7 @@
         <v>1722</v>
       </c>
       <c r="B124" t="n">
-        <v>445742538.8156262</v>
+        <v>407050571.551856</v>
       </c>
     </row>
     <row r="125">
@@ -1432,7 +1432,7 @@
         <v>1723</v>
       </c>
       <c r="B125" t="n">
-        <v>447718957.6418024</v>
+        <v>408855430.5068893</v>
       </c>
     </row>
     <row r="126">
@@ -1440,7 +1440,7 @@
         <v>1724</v>
       </c>
       <c r="B126" t="n">
-        <v>449721678.9056722</v>
+        <v>410684308.7586342</v>
       </c>
     </row>
     <row r="127">
@@ -1448,7 +1448,7 @@
         <v>1725</v>
       </c>
       <c r="B127" t="n">
-        <v>451751085.1733847</v>
+        <v>412537555.6651968</v>
       </c>
     </row>
     <row r="128">
@@ -1456,7 +1456,7 @@
         <v>1726</v>
       </c>
       <c r="B128" t="n">
-        <v>453807565.9973784</v>
+        <v>414415526.9645393</v>
       </c>
     </row>
     <row r="129">
@@ -1464,7 +1464,7 @@
         <v>1727</v>
       </c>
       <c r="B129" t="n">
-        <v>455891518.0043288</v>
+        <v>416318584.8547957</v>
       </c>
     </row>
     <row r="130">
@@ -1472,7 +1472,7 @@
         <v>1728</v>
       </c>
       <c r="B130" t="n">
-        <v>458003344.980003</v>
+        <v>418247098.0717543</v>
       </c>
     </row>
     <row r="131">
@@ -1480,7 +1480,7 @@
         <v>1729</v>
       </c>
       <c r="B131" t="n">
-        <v>460143457.9508941</v>
+        <v>420201441.9634134</v>
       </c>
     </row>
     <row r="132">
@@ -1488,7 +1488,7 @@
         <v>1730</v>
       </c>
       <c r="B132" t="n">
-        <v>462312275.2625892</v>
+        <v>422181998.5615395</v>
       </c>
     </row>
     <row r="133">
@@ -1496,7 +1496,7 @@
         <v>1731</v>
       </c>
       <c r="B133" t="n">
-        <v>464510222.6547794</v>
+        <v>424189156.6501736</v>
       </c>
     </row>
     <row r="134">
@@ -1504,7 +1504,7 @@
         <v>1732</v>
       </c>
       <c r="B134" t="n">
-        <v>466737733.3328699</v>
+        <v>426223311.8310181</v>
       </c>
     </row>
     <row r="135">
@@ -1512,7 +1512,7 @@
         <v>1733</v>
       </c>
       <c r="B135" t="n">
-        <v>468995248.0361525</v>
+        <v>428284866.5856969</v>
       </c>
     </row>
     <row r="136">
@@ -1520,7 +1520,7 @@
         <v>1734</v>
       </c>
       <c r="B136" t="n">
-        <v>471283215.1025115</v>
+        <v>430374230.334842</v>
       </c>
     </row>
     <row r="137">
@@ -1528,7 +1528,7 @@
         <v>1735</v>
       </c>
       <c r="B137" t="n">
-        <v>473602090.5296622</v>
+        <v>432491819.4940169</v>
       </c>
     </row>
     <row r="138">
@@ -1536,7 +1536,7 @@
         <v>1736</v>
       </c>
       <c r="B138" t="n">
-        <v>475952338.032932</v>
+        <v>434638057.5264836</v>
       </c>
     </row>
     <row r="139">
@@ -1544,7 +1544,7 @@
         <v>1737</v>
       </c>
       <c r="B139" t="n">
-        <v>478334429.099602</v>
+        <v>436813374.992824</v>
       </c>
     </row>
     <row r="140">
@@ -1552,7 +1552,7 @@
         <v>1738</v>
       </c>
       <c r="B140" t="n">
-        <v>480748843.0398616</v>
+        <v>439018209.5974749</v>
       </c>
     </row>
     <row r="141">
@@ -1560,7 +1560,7 @@
         <v>1739</v>
       </c>
       <c r="B141" t="n">
-        <v>483196067.0344316</v>
+        <v>441253006.2322136</v>
       </c>
     </row>
     <row r="142">
@@ -1568,7 +1568,7 @@
         <v>1740</v>
       </c>
       <c r="B142" t="n">
-        <v>485676596.1789307</v>
+        <v>443518217.0166774</v>
       </c>
     </row>
     <row r="143">
@@ -1576,7 +1576,7 @@
         <v>1741</v>
       </c>
       <c r="B143" t="n">
-        <v>488190933.5250887</v>
+        <v>445814301.335996</v>
       </c>
     </row>
     <row r="144">
@@ -1584,7 +1584,7 @@
         <v>1742</v>
       </c>
       <c r="B144" t="n">
-        <v>490739590.118908</v>
+        <v>448141725.875642</v>
       </c>
     </row>
     <row r="145">
@@ -1592,7 +1592,7 @@
         <v>1743</v>
       </c>
       <c r="B145" t="n">
-        <v>493323085.0359157</v>
+        <v>450500964.6536226</v>
       </c>
     </row>
     <row r="146">
@@ -1600,7 +1600,7 @@
         <v>1744</v>
       </c>
       <c r="B146" t="n">
-        <v>495941945.4136422</v>
+        <v>452892499.0501389</v>
       </c>
     </row>
     <row r="147">
@@ -1608,7 +1608,7 @@
         <v>1745</v>
       </c>
       <c r="B147" t="n">
-        <v>498596706.4815032</v>
+        <v>455316817.834874</v>
       </c>
     </row>
     <row r="148">
@@ -1616,7 +1616,7 @@
         <v>1746</v>
       </c>
       <c r="B148" t="n">
-        <v>501287911.5882569</v>
+        <v>457774417.1920683</v>
       </c>
     </row>
     <row r="149">
@@ -1624,7 +1624,7 @@
         <v>1747</v>
       </c>
       <c r="B149" t="n">
-        <v>504016112.2272459</v>
+        <v>460265800.7435672</v>
       </c>
     </row>
     <row r="150">
@@ -1632,7 +1632,7 @@
         <v>1748</v>
       </c>
       <c r="B150" t="n">
-        <v>506781868.0596343</v>
+        <v>462791479.5700442</v>
       </c>
     </row>
     <row r="151">
@@ -1640,7 +1640,7 @@
         <v>1749</v>
       </c>
       <c r="B151" t="n">
-        <v>509585746.9358752</v>
+        <v>465351972.2306025</v>
       </c>
     </row>
     <row r="152">
@@ -1648,7 +1648,7 @@
         <v>1750</v>
       </c>
       <c r="B152" t="n">
-        <v>512428324.9156568</v>
+        <v>467947804.7809919</v>
       </c>
     </row>
     <row r="153">
@@ -1656,7 +1656,7 @@
         <v>1751</v>
       </c>
       <c r="B153" t="n">
-        <v>515310186.2865916</v>
+        <v>470579510.7906742</v>
       </c>
     </row>
     <row r="154">
@@ -1664,7 +1664,7 @@
         <v>1752</v>
       </c>
       <c r="B154" t="n">
-        <v>518231923.5819323</v>
+        <v>473247631.3590022</v>
       </c>
     </row>
     <row r="155">
@@ -1672,7 +1672,7 @@
         <v>1753</v>
       </c>
       <c r="B155" t="n">
-        <v>521194137.5976022</v>
+        <v>475952715.1307715</v>
       </c>
     </row>
     <row r="156">
@@ -1680,7 +1680,7 @@
         <v>1754</v>
       </c>
       <c r="B156" t="n">
-        <v>524197437.4088519</v>
+        <v>478695318.3114311</v>
       </c>
     </row>
     <row r="157">
@@ -1688,7 +1688,7 @@
         <v>1755</v>
       </c>
       <c r="B157" t="n">
-        <v>527242440.3868655</v>
+        <v>481476004.6822467</v>
       </c>
     </row>
     <row r="158">
@@ -1696,7 +1696,7 @@
         <v>1756</v>
       </c>
       <c r="B158" t="n">
-        <v>530329772.2156434</v>
+        <v>484295345.6157222</v>
       </c>
     </row>
     <row r="159">
@@ -1704,7 +1704,7 @@
         <v>1757</v>
       </c>
       <c r="B159" t="n">
-        <v>533460066.9095131</v>
+        <v>487153920.0915866</v>
       </c>
     </row>
     <row r="160">
@@ -1712,7 +1712,7 @@
         <v>1758</v>
       </c>
       <c r="B160" t="n">
-        <v>536633966.8316253</v>
+        <v>490052314.7136862</v>
       </c>
     </row>
     <row r="161">
@@ -1720,7 +1720,7 @@
         <v>1759</v>
       </c>
       <c r="B161" t="n">
-        <v>539852122.7137948</v>
+        <v>492991123.7281025</v>
       </c>
     </row>
     <row r="162">
@@ -1728,7 +1728,7 @@
         <v>1760</v>
       </c>
       <c r="B162" t="n">
-        <v>543115193.6780683</v>
+        <v>495970949.0428475</v>
       </c>
     </row>
     <row r="163">
@@ -1736,7 +1736,7 @@
         <v>1761</v>
       </c>
       <c r="B163" t="n">
-        <v>546423847.2603993</v>
+        <v>498992400.2494872</v>
       </c>
     </row>
     <row r="164">
@@ -1744,7 +1744,7 @@
         <v>1762</v>
       </c>
       <c r="B164" t="n">
-        <v>549778759.4368317</v>
+        <v>502056094.6470463</v>
       </c>
     </row>
     <row r="165">
@@ -1752,7 +1752,7 @@
         <v>1763</v>
       </c>
       <c r="B165" t="n">
-        <v>553180614.6525714</v>
+        <v>505162657.2685608</v>
       </c>
     </row>
     <row r="166">
@@ -1760,7 +1760,7 @@
         <v>1764</v>
       </c>
       <c r="B166" t="n">
-        <v>556630105.8543717</v>
+        <v>508312720.91065</v>
       </c>
     </row>
     <row r="167">
@@ -1768,7 +1768,7 @@
         <v>1765</v>
       </c>
       <c r="B167" t="n">
-        <v>560127934.5266262</v>
+        <v>511506926.16648</v>
       </c>
     </row>
     <row r="168">
@@ -1776,7 +1776,7 @@
         <v>1766</v>
       </c>
       <c r="B168" t="n">
-        <v>563674810.7315936</v>
+        <v>514745921.4624903</v>
       </c>
     </row>
     <row r="169">
@@ -1784,7 +1784,7 @@
         <v>1767</v>
       </c>
       <c r="B169" t="n">
-        <v>567271453.1541584</v>
+        <v>518030363.0992759</v>
       </c>
     </row>
     <row r="170">
@@ -1792,7 +1792,7 @@
         <v>1768</v>
       </c>
       <c r="B170" t="n">
-        <v>570918589.151559</v>
+        <v>521360915.2969955</v>
       </c>
     </row>
     <row r="171">
@@ -1800,7 +1800,7 @@
         <v>1769</v>
       </c>
       <c r="B171" t="n">
-        <v>574616954.8084964</v>
+        <v>524738250.2456948</v>
       </c>
     </row>
     <row r="172">
@@ -1808,7 +1808,7 @@
         <v>1770</v>
       </c>
       <c r="B172" t="n">
-        <v>578367294.9980371</v>
+        <v>528163048.1609281</v>
       </c>
     </row>
     <row r="173">
@@ -1816,7 +1816,7 @@
         <v>1771</v>
       </c>
       <c r="B173" t="n">
-        <v>582170363.44875</v>
+        <v>531635997.3450621</v>
       </c>
     </row>
     <row r="174">
@@ -1824,7 +1824,7 @@
         <v>1772</v>
       </c>
       <c r="B174" t="n">
-        <v>586026922.8184727</v>
+        <v>535157794.2546417</v>
       </c>
     </row>
     <row r="175">
@@ -1832,7 +1832,7 @@
         <v>1773</v>
       </c>
       <c r="B175" t="n">
-        <v>589937744.7751371</v>
+        <v>538729143.5742013</v>
       </c>
     </row>
     <row r="176">
@@ -1840,7 +1840,7 @@
         <v>1774</v>
       </c>
       <c r="B176" t="n">
-        <v>593903610.0850726</v>
+        <v>542350758.296898</v>
       </c>
     </row>
     <row r="177">
@@ -1848,7 +1848,7 @@
         <v>1775</v>
       </c>
       <c r="B177" t="n">
-        <v>597925308.7091826</v>
+        <v>546023359.8123447</v>
       </c>
     </row>
     <row r="178">
@@ -1856,7 +1856,7 @@
         <v>1776</v>
       </c>
       <c r="B178" t="n">
-        <v>602003639.9074159</v>
+        <v>549747678.0020096</v>
       </c>
     </row>
     <row r="179">
@@ -1864,7 +1864,7 @@
         <v>1777</v>
       </c>
       <c r="B179" t="n">
-        <v>606139412.3519253</v>
+        <v>553524451.3425556</v>
       </c>
     </row>
     <row r="180">
@@ -1872,7 +1872,7 @@
         <v>1778</v>
       </c>
       <c r="B180" t="n">
-        <v>610333444.2493169</v>
+        <v>557354427.0174736</v>
       </c>
     </row>
     <row r="181">
@@ -1880,7 +1880,7 @@
         <v>1779</v>
       </c>
       <c r="B181" t="n">
-        <v>614586563.4723762</v>
+        <v>561238361.0373776</v>
       </c>
     </row>
     <row r="182">
@@ -1888,7 +1888,7 @@
         <v>1780</v>
       </c>
       <c r="B182" t="n">
-        <v>618899607.7016581</v>
+        <v>565177018.3693043</v>
       </c>
     </row>
     <row r="183">
@@ -1896,7 +1896,7 @@
         <v>1781</v>
       </c>
       <c r="B183" t="n">
-        <v>623273424.5773226</v>
+        <v>569171173.0753658</v>
       </c>
     </row>
     <row r="184">
@@ -1904,7 +1904,7 @@
         <v>1782</v>
       </c>
       <c r="B184" t="n">
-        <v>627708871.8615776</v>
+        <v>573221608.4610962</v>
       </c>
     </row>
     <row r="185">
@@ -1912,7 +1912,7 @@
         <v>1783</v>
       </c>
       <c r="B185" t="n">
-        <v>632206817.612106</v>
+        <v>577329117.2338208</v>
       </c>
     </row>
     <row r="186">
@@ -1920,7 +1920,7 @@
         <v>1784</v>
       </c>
       <c r="B186" t="n">
-        <v>636768140.3668242</v>
+        <v>581494501.6713798</v>
       </c>
     </row>
     <row r="187">
@@ -1928,7 +1928,7 @@
         <v>1785</v>
       </c>
       <c r="B187" t="n">
-        <v>641393729.3403225</v>
+        <v>585718573.8015143</v>
       </c>
     </row>
     <row r="188">
@@ -1936,7 +1936,7 @@
         <v>1786</v>
       </c>
       <c r="B188" t="n">
-        <v>646084484.6323351</v>
+        <v>590002155.5922425</v>
       </c>
     </row>
     <row r="189">
@@ -1944,7 +1944,7 @@
         <v>1787</v>
       </c>
       <c r="B189" t="n">
-        <v>650841317.4485589</v>
+        <v>594346079.15351</v>
       </c>
     </row>
     <row r="190">
@@ -1952,7 +1952,7 @@
         <v>1788</v>
       </c>
       <c r="B190" t="n">
-        <v>655665150.3341627</v>
+        <v>598751186.9504306</v>
       </c>
     </row>
     <row r="191">
@@ -1960,7 +1960,7 @@
         <v>1789</v>
       </c>
       <c r="B191" t="n">
-        <v>660556917.4202977</v>
+        <v>603218332.0283953</v>
       </c>
     </row>
     <row r="192">
@@ -1968,7 +1968,7 @@
         <v>1790</v>
       </c>
       <c r="B192" t="n">
-        <v>665517564.6839049</v>
+        <v>607748378.2503328</v>
       </c>
     </row>
     <row r="193">
@@ -1976,7 +1976,7 @@
         <v>1791</v>
       </c>
       <c r="B193" t="n">
-        <v>670548050.2211517</v>
+        <v>612342200.5464061</v>
       </c>
     </row>
     <row r="194">
@@ -1984,7 +1984,7 @@
         <v>1792</v>
       </c>
       <c r="B194" t="n">
-        <v>675649344.5347608</v>
+        <v>617000685.1764038</v>
       </c>
     </row>
     <row r="195">
@@ -1992,7 +1992,7 @@
         <v>1793</v>
       </c>
       <c r="B195" t="n">
-        <v>680822430.835539</v>
+        <v>621724730.0050936</v>
       </c>
     </row>
     <row r="196">
@@ -2000,7 +2000,7 @@
         <v>1794</v>
       </c>
       <c r="B196" t="n">
-        <v>686068305.3583792</v>
+        <v>626515244.7907929</v>
       </c>
     </row>
     <row r="197">
@@ -2008,7 +2008,7 @@
         <v>1795</v>
       </c>
       <c r="B197" t="n">
-        <v>691387977.6930062</v>
+        <v>631373151.4874073</v>
       </c>
     </row>
     <row r="198">
@@ -2016,7 +2016,7 @@
         <v>1796</v>
       </c>
       <c r="B198" t="n">
-        <v>696782471.1297413</v>
+        <v>636299384.5601815</v>
       </c>
     </row>
     <row r="199">
@@ -2024,7 +2024,7 @@
         <v>1797</v>
       </c>
       <c r="B199" t="n">
-        <v>702252823.0205421</v>
+        <v>641294891.315397</v>
       </c>
     </row>
     <row r="200">
@@ -2032,7 +2032,7 @@
         <v>1798</v>
       </c>
       <c r="B200" t="n">
-        <v>707800085.1555753</v>
+        <v>646360632.2442584</v>
       </c>
     </row>
     <row r="201">
@@ -2040,7 +2040,7 @@
         <v>1799</v>
       </c>
       <c r="B201" t="n">
-        <v>713425324.1555701</v>
+        <v>651497581.3811926</v>
       </c>
     </row>
     <row r="202">
@@ -2048,7 +2048,7 @@
         <v>1800</v>
       </c>
       <c r="B202" t="n">
-        <v>719129621.8802098</v>
+        <v>656706726.6767848</v>
       </c>
     </row>
     <row r="203">
@@ -2056,7 +2056,7 @@
         <v>1801</v>
       </c>
       <c r="B203" t="n">
-        <v>724914075.8527912</v>
+        <v>661989070.3855791</v>
       </c>
     </row>
     <row r="204">
@@ -2064,7 +2064,7 @@
         <v>1802</v>
       </c>
       <c r="B204" t="n">
-        <v>730779799.7013607</v>
+        <v>667345629.4689223</v>
       </c>
     </row>
     <row r="205">
@@ -2072,7 +2072,7 @@
         <v>1803</v>
       </c>
       <c r="B205" t="n">
-        <v>736727923.6166732</v>
+        <v>672777436.0131719</v>
       </c>
     </row>
     <row r="206">
@@ -2080,7 +2080,7 @@
         <v>1804</v>
       </c>
       <c r="B206" t="n">
-        <v>742759594.8270963</v>
+        <v>678285537.6633743</v>
       </c>
     </row>
     <row r="207">
@@ -2088,7 +2088,7 @@
         <v>1805</v>
       </c>
       <c r="B207" t="n">
-        <v>748875978.0907364</v>
+        <v>683870998.072673</v>
       </c>
     </row>
     <row r="208">
@@ -2096,7 +2096,7 @@
         <v>1806</v>
       </c>
       <c r="B208" t="n">
-        <v>755078256.2050065</v>
+        <v>689534897.3676457</v>
       </c>
     </row>
     <row r="209">
@@ -2104,7 +2104,7 @@
         <v>1807</v>
       </c>
       <c r="B209" t="n">
-        <v>761367630.5338721</v>
+        <v>695278332.6297828</v>
       </c>
     </row>
     <row r="210">
@@ -2112,7 +2112,7 @@
         <v>1808</v>
       </c>
       <c r="B210" t="n">
-        <v>767745321.5530053</v>
+        <v>701102418.3933207</v>
       </c>
     </row>
     <row r="211">
@@ -2120,7 +2120,7 @@
         <v>1809</v>
       </c>
       <c r="B211" t="n">
-        <v>774212569.4130671</v>
+        <v>707008287.1596284</v>
       </c>
     </row>
     <row r="212">
@@ -2128,7 +2128,7 @@
         <v>1810</v>
       </c>
       <c r="B212" t="n">
-        <v>780770634.5213643</v>
+        <v>712997089.9283735</v>
       </c>
     </row>
     <row r="213">
@@ -2136,7 +2136,7 @@
         <v>1811</v>
       </c>
       <c r="B213" t="n">
-        <v>787420798.1420892</v>
+        <v>719069996.745663</v>
       </c>
     </row>
     <row r="214">
@@ -2144,7 +2144,7 @@
         <v>1812</v>
       </c>
       <c r="B214" t="n">
-        <v>794164363.0153971</v>
+        <v>725228197.2693794</v>
       </c>
     </row>
     <row r="215">
@@ -2152,7 +2152,7 @@
         <v>1813</v>
       </c>
       <c r="B215" t="n">
-        <v>801002653.9955345</v>
+        <v>731472901.3519176</v>
       </c>
     </row>
     <row r="216">
@@ -2160,7 +2160,7 @@
         <v>1814</v>
       </c>
       <c r="B216" t="n">
-        <v>807937018.7082685</v>
+        <v>737805339.6405476</v>
       </c>
     </row>
     <row r="217">
@@ -2168,7 +2168,7 @@
         <v>1815</v>
       </c>
       <c r="B217" t="n">
-        <v>814968828.2278395</v>
+        <v>744226764.1956073</v>
       </c>
     </row>
     <row r="218">
@@ -2176,7 +2176,7 @@
         <v>1816</v>
       </c>
       <c r="B218" t="n">
-        <v>822099477.7736888</v>
+        <v>750738449.1267476</v>
       </c>
     </row>
     <row r="219">
@@ -2184,7 +2184,7 @@
         <v>1817</v>
       </c>
       <c r="B219" t="n">
-        <v>829330387.4271883</v>
+        <v>757341691.2474508</v>
       </c>
     </row>
     <row r="220">
@@ -2192,7 +2192,7 @@
         <v>1818</v>
       </c>
       <c r="B220" t="n">
-        <v>836663002.8686205</v>
+        <v>764037810.7480391</v>
       </c>
     </row>
     <row r="221">
@@ -2200,7 +2200,7 @@
         <v>1819</v>
       </c>
       <c r="B221" t="n">
-        <v>844098796.1346598</v>
+        <v>770828151.8874</v>
       </c>
     </row>
     <row r="222">
@@ -2208,7 +2208,7 @@
         <v>1820</v>
       </c>
       <c r="B222" t="n">
-        <v>851639266.3965789</v>
+        <v>777714083.703644</v>
       </c>
     </row>
     <row r="223">
@@ -2216,7 +2216,7 @@
         <v>1821</v>
       </c>
       <c r="B223" t="n">
-        <v>859285940.7594457</v>
+        <v>784697000.7439305</v>
       </c>
     </row>
     <row r="224">
@@ -2224,7 +2224,7 @@
         <v>1822</v>
       </c>
       <c r="B224" t="n">
-        <v>867040375.0825509</v>
+        <v>791778323.8136741</v>
       </c>
     </row>
     <row r="225">
@@ -2232,7 +2232,7 @@
         <v>1823</v>
       </c>
       <c r="B225" t="n">
-        <v>874904154.8213084</v>
+        <v>798959500.7453711</v>
       </c>
     </row>
     <row r="226">
@@ -2240,7 +2240,7 @@
         <v>1824</v>
       </c>
       <c r="B226" t="n">
-        <v>882878895.8908737</v>
+        <v>806242007.1872511</v>
       </c>
     </row>
     <row r="227">
@@ -2248,7 +2248,7 @@
         <v>1825</v>
       </c>
       <c r="B227" t="n">
-        <v>890966245.5517368</v>
+        <v>813627347.4119941</v>
       </c>
     </row>
     <row r="228">
@@ -2256,7 +2256,7 @@
         <v>1826</v>
       </c>
       <c r="B228" t="n">
-        <v>899167883.3175163</v>
+        <v>821117055.1457283</v>
       </c>
     </row>
     <row r="229">
@@ -2264,7 +2264,7 @@
         <v>1827</v>
       </c>
       <c r="B229" t="n">
-        <v>907485521.8851969</v>
+        <v>828712694.4175199</v>
       </c>
     </row>
     <row r="230">
@@ -2272,7 +2272,7 @@
         <v>1828</v>
       </c>
       <c r="B230" t="n">
-        <v>915920908.0880517</v>
+        <v>836415860.4295774</v>
       </c>
     </row>
     <row r="231">
@@ -2280,7 +2280,7 @@
         <v>1829</v>
       </c>
       <c r="B231" t="n">
-        <v>924475823.8714701</v>
+        <v>844228180.4483743</v>
       </c>
     </row>
     <row r="232">
@@ -2288,7 +2288,7 @@
         <v>1830</v>
       </c>
       <c r="B232" t="n">
-        <v>933152087.291912</v>
+        <v>852151314.7168897</v>
       </c>
     </row>
     <row r="233">
@@ -2296,7 +2296,7 @@
         <v>1831</v>
       </c>
       <c r="B233" t="n">
-        <v>941951553.5391959</v>
+        <v>860186957.3881619</v>
       </c>
     </row>
     <row r="234">
@@ -2304,7 +2304,7 @@
         <v>1832</v>
       </c>
       <c r="B234" t="n">
-        <v>950876115.9823391</v>
+        <v>868336837.4803432</v>
       </c>
     </row>
     <row r="235">
@@ -2312,7 +2312,7 @@
         <v>1833</v>
       </c>
       <c r="B235" t="n">
-        <v>959927707.2391084</v>
+        <v>876602719.8534099</v>
       </c>
     </row>
     <row r="236">
@@ -2320,7 +2320,7 @@
         <v>1834</v>
       </c>
       <c r="B236" t="n">
-        <v>969108300.2694838</v>
+        <v>884986406.2077085</v>
       </c>
     </row>
     <row r="237">
@@ -2328,7 +2328,7 @@
         <v>1835</v>
       </c>
       <c r="B237" t="n">
-        <v>978419909.4931659</v>
+        <v>893489736.1044657</v>
       </c>
     </row>
     <row r="238">
@@ -2336,7 +2336,7 @@
         <v>1836</v>
       </c>
       <c r="B238" t="n">
-        <v>987864591.9312824</v>
+        <v>902114588.0083833</v>
       </c>
     </row>
     <row r="239">
@@ -2344,7 +2344,7 @@
         <v>1837</v>
       </c>
       <c r="B239" t="n">
-        <v>997444448.3723912</v>
+        <v>910862880.3524334</v>
       </c>
     </row>
     <row r="240">
@@ -2352,7 +2352,7 @@
         <v>1838</v>
       </c>
       <c r="B240" t="n">
-        <v>1007161624.562885</v>
+        <v>919736572.624928</v>
       </c>
     </row>
     <row r="241">
@@ -2360,7 +2360,7 @@
         <v>1839</v>
       </c>
       <c r="B241" t="n">
-        <v>1017018312.421835</v>
+        <v>928737666.4789149</v>
       </c>
     </row>
     <row r="242">
@@ -2368,7 +2368,7 @@
         <v>1840</v>
       </c>
       <c r="B242" t="n">
-        <v>1027016751.280328</v>
+        <v>937868206.8639324</v>
       </c>
     </row>
     <row r="243">
@@ -2376,7 +2376,7 @@
         <v>1841</v>
       </c>
       <c r="B243" t="n">
-        <v>1037159229.145278</v>
+        <v>947130283.1801156</v>
       </c>
     </row>
     <row r="244">
@@ -2384,7 +2384,7 @@
         <v>1842</v>
       </c>
       <c r="B244" t="n">
-        <v>1047448083.987655</v>
+        <v>956526030.4546111</v>
       </c>
     </row>
     <row r="245">
@@ -2392,7 +2392,7 @@
         <v>1843</v>
       </c>
       <c r="B245" t="n">
-        <v>1057885705.055078</v>
+        <v>966057630.540223</v>
       </c>
     </row>
     <row r="246">
@@ -2400,7 +2400,7 @@
         <v>1844</v>
       </c>
       <c r="B246" t="n">
-        <v>1068474534.208602</v>
+        <v>975727313.3361697</v>
       </c>
     </row>
     <row r="247">
@@ -2408,7 +2408,7 @@
         <v>1845</v>
       </c>
       <c r="B247" t="n">
-        <v>1079217067.283552</v>
+        <v>985537358.0307863</v>
       </c>
     </row>
     <row r="248">
@@ -2416,7 +2416,7 @@
         <v>1846</v>
       </c>
       <c r="B248" t="n">
-        <v>1090115855.474133</v>
+        <v>995490094.3659511</v>
       </c>
     </row>
     <row r="249">
@@ -2424,7 +2424,7 @@
         <v>1847</v>
       </c>
       <c r="B249" t="n">
-        <v>1101173506.741544</v>
+        <v>1005587903.922967</v>
       </c>
     </row>
     <row r="250">
@@ -2432,7 +2432,7 @@
         <v>1848</v>
       </c>
       <c r="B250" t="n">
-        <v>1112392687.245222</v>
+        <v>1015833221.429569</v>
       </c>
     </row>
     <row r="251">
@@ -2440,7 +2440,7 @@
         <v>1849</v>
       </c>
       <c r="B251" t="n">
-        <v>1123776122.796789</v>
+        <v>1026228536.08767</v>
       </c>
     </row>
     <row r="252">
@@ -2448,7 +2448,7 @@
         <v>1850</v>
       </c>
       <c r="B252" t="n">
-        <v>1135326600.336204</v>
+        <v>1036776392.921366</v>
       </c>
     </row>
     <row r="253">
@@ -2456,7 +2456,7 @@
         <v>1851</v>
       </c>
       <c r="B253" t="n">
-        <v>1147046969.429514</v>
+        <v>1047479394.14469</v>
       </c>
     </row>
     <row r="254">
@@ -2464,7 +2464,7 @@
         <v>1852</v>
       </c>
       <c r="B254" t="n">
-        <v>1158940143.787572</v>
+        <v>1058340200.548486</v>
       </c>
     </row>
     <row r="255">
@@ -2472,7 +2472,7 @@
         <v>1853</v>
       </c>
       <c r="B255" t="n">
-        <v>1171009102.804908</v>
+        <v>1069361532.905716</v>
       </c>
     </row>
     <row r="256">
@@ -2480,7 +2480,7 @@
         <v>1854</v>
       </c>
       <c r="B256" t="n">
-        <v>1183256893.117947</v>
+        <v>1080546173.394409</v>
       </c>
     </row>
     <row r="257">
@@ -2488,7 +2488,7 @@
         <v>1855</v>
       </c>
       <c r="B257" t="n">
-        <v>1195686630.181572</v>
+        <v>1091896967.037375</v>
       </c>
     </row>
     <row r="258">
@@ -2496,7 +2496,7 @@
         <v>1856</v>
       </c>
       <c r="B258" t="n">
-        <v>1208301499.862982</v>
+        <v>1103416823.157711</v>
       </c>
     </row>
     <row r="259">
@@ -2504,7 +2504,7 @@
         <v>1857</v>
       </c>
       <c r="B259" t="n">
-        <v>1221104760.05163</v>
+        <v>1115108716.848999</v>
       </c>
     </row>
     <row r="260">
@@ -2512,7 +2512,7 @@
         <v>1858</v>
       </c>
       <c r="B260" t="n">
-        <v>1234099742.283967</v>
+        <v>1126975690.458998</v>
       </c>
     </row>
     <row r="261">
@@ -2520,7 +2520,7 @@
         <v>1859</v>
       </c>
       <c r="B261" t="n">
-        <v>1247289853.381491</v>
+        <v>1139020855.085524</v>
       </c>
     </row>
     <row r="262">
@@ -2528,7 +2528,7 @@
         <v>1860</v>
       </c>
       <c r="B262" t="n">
-        <v>1260678577.100577</v>
+        <v>1151247392.083056</v>
       </c>
     </row>
     <row r="263">
@@ -2536,7 +2536,7 @@
         <v>1861</v>
       </c>
       <c r="B263" t="n">
-        <v>1274269475.792305</v>
+        <v>1163658554.578499</v>
       </c>
     </row>
     <row r="264">
@@ -2544,7 +2544,7 @@
         <v>1862</v>
       </c>
       <c r="B264" t="n">
-        <v>1288066192.070449</v>
+        <v>1176257668.994366</v>
       </c>
     </row>
     <row r="265">
@@ -2552,7 +2552,7 @@
         <v>1863</v>
       </c>
       <c r="B265" t="n">
-        <v>1302072450.48556</v>
+        <v>1189048136.577563</v>
       </c>
     </row>
     <row r="266">
@@ -2560,7 +2560,7 @@
         <v>1864</v>
       </c>
       <c r="B266" t="n">
-        <v>1316292059.202923</v>
+        <v>1202033434.931689</v>
       </c>
     </row>
     <row r="267">
@@ -2568,7 +2568,7 @@
         <v>1865</v>
       </c>
       <c r="B267" t="n">
-        <v>1330728911.682031</v>
+        <v>1215217119.550718</v>
       </c>
     </row>
     <row r="268">
@@ -2576,7 +2576,7 @@
         <v>1866</v>
       </c>
       <c r="B268" t="n">
-        <v>1345386988.354986</v>
+        <v>1228602825.351721</v>
       </c>
     </row>
     <row r="269">
@@ -2584,7 +2584,7 @@
         <v>1867</v>
       </c>
       <c r="B269" t="n">
-        <v>1360270358.301056</v>
+        <v>1242194268.204051</v>
       </c>
     </row>
     <row r="270">
@@ -2592,7 +2592,7 @@
         <v>1868</v>
       </c>
       <c r="B270" t="n">
-        <v>1375383180.914438</v>
+        <v>1255995246.452357</v>
       </c>
     </row>
     <row r="271">
@@ -2600,7 +2600,7 @@
         <v>1869</v>
       </c>
       <c r="B271" t="n">
-        <v>1390729707.56205</v>
+        <v>1270009642.430459</v>
       </c>
     </row>
     <row r="272">
@@ -2608,7 +2608,7 @@
         <v>1870</v>
       </c>
       <c r="B272" t="n">
-        <v>1406314283.227964</v>
+        <v>1284241423.963042</v>
       </c>
     </row>
     <row r="273">
@@ -2616,7 +2616,7 @@
         <v>1871</v>
       </c>
       <c r="B273" t="n">
-        <v>1422141348.140854</v>
+        <v>1298694645.851844</v>
       </c>
     </row>
     <row r="274">
@@ -2624,7 +2624,7 @@
         <v>1872</v>
       </c>
       <c r="B274" t="n">
-        <v>1438215439.380638</v>
+        <v>1313373451.342825</v>
       </c>
     </row>
     <row r="275">
@@ -2632,7 +2632,7 @@
         <v>1873</v>
       </c>
       <c r="B275" t="n">
-        <v>1454541192.460206</v>
+        <v>1328282073.570602</v>
       </c>
     </row>
     <row r="276">
@@ -2640,7 +2640,7 @@
         <v>1874</v>
       </c>
       <c r="B276" t="n">
-        <v>1471123342.877904</v>
+        <v>1343424836.976172</v>
       </c>
     </row>
     <row r="277">
@@ -2648,7 +2648,7 @@
         <v>1875</v>
       </c>
       <c r="B277" t="n">
-        <v>1487966727.636199</v>
+        <v>1358806158.693748</v>
       </c>
     </row>
     <row r="278">
@@ -2656,7 +2656,7 @@
         <v>1876</v>
       </c>
       <c r="B278" t="n">
-        <v>1505076286.721653</v>
+        <v>1374430549.902268</v>
       </c>
     </row>
     <row r="279">
@@ -2664,7 +2664,7 @@
         <v>1877</v>
       </c>
       <c r="B279" t="n">
-        <v>1522457064.541105</v>
+        <v>1390302617.136914</v>
       </c>
     </row>
     <row r="280">
@@ -2672,7 +2672,7 @@
         <v>1878</v>
       </c>
       <c r="B280" t="n">
-        <v>1540114211.308647</v>
+        <v>1406427063.555693</v>
       </c>
     </row>
     <row r="281">
@@ -2680,7 +2680,7 @@
         <v>1879</v>
       </c>
       <c r="B281" t="n">
-        <v>1558052984.377733</v>
+        <v>1422808690.15591</v>
       </c>
     </row>
     <row r="282">
@@ -2688,7 +2688,7 @@
         <v>1880</v>
       </c>
       <c r="B282" t="n">
-        <v>1576278749.512443</v>
+        <v>1439452396.935088</v>
       </c>
     </row>
     <row r="283">
@@ -2696,7 +2696,7 @@
         <v>1881</v>
       </c>
       <c r="B283" t="n">
-        <v>1594796982.091648</v>
+        <v>1456363183.990603</v>
       </c>
     </row>
     <row r="284">
@@ -2704,7 +2704,7 @@
         <v>1882</v>
       </c>
       <c r="B284" t="n">
-        <v>1613613268.239529</v>
+        <v>1473546152.552072</v>
       </c>
     </row>
     <row r="285">
@@ -2712,7 +2712,7 @@
         <v>1883</v>
       </c>
       <c r="B285" t="n">
-        <v>1632733305.875577</v>
+        <v>1491006505.940209</v>
       </c>
     </row>
     <row r="286">
@@ -2720,7 +2720,7 @@
         <v>1884</v>
       </c>
       <c r="B286" t="n">
-        <v>1652162905.676943</v>
+        <v>1508749550.44564</v>
       </c>
     </row>
     <row r="287">
@@ -2728,7 +2728,7 @@
         <v>1885</v>
       </c>
       <c r="B287" t="n">
-        <v>1671907991.945647</v>
+        <v>1526780696.120838</v>
       </c>
     </row>
     <row r="288">
@@ -2736,7 +2736,7 @@
         <v>1886</v>
       </c>
       <c r="B288" t="n">
-        <v>1691974603.372895</v>
+        <v>1545105457.478087</v>
       </c>
     </row>
     <row r="289">
@@ -2744,7 +2744,7 @@
         <v>1887</v>
       </c>
       <c r="B289" t="n">
-        <v>1712368893.692415</v>
+        <v>1563729454.086112</v>
       </c>
     </row>
     <row r="290">
@@ -2752,7 +2752,7 @@
         <v>1888</v>
       </c>
       <c r="B290" t="n">
-        <v>1733097132.21444</v>
+        <v>1582658411.057714</v>
       </c>
     </row>
     <row r="291">
@@ -2760,7 +2760,7 @@
         <v>1889</v>
       </c>
       <c r="B291" t="n">
-        <v>1754165704.231647</v>
+        <v>1601898159.420464</v>
       </c>
     </row>
     <row r="292">
@@ -2768,7 +2768,7 @@
         <v>1890</v>
       </c>
       <c r="B292" t="n">
-        <v>1775581111.288066</v>
+        <v>1621454636.362272</v>
       </c>
     </row>
     <row r="293">
@@ -2776,7 +2776,7 @@
         <v>1891</v>
       </c>
       <c r="B293" t="n">
-        <v>1797349971.301681</v>
+        <v>1641333885.343351</v>
       </c>
     </row>
     <row r="294">
@@ -2784,7 +2784,7 @@
         <v>1892</v>
       </c>
       <c r="B294" t="n">
-        <v>1819479018.531159</v>
+        <v>1661542056.065829</v>
       </c>
     </row>
     <row r="295">
@@ -2792,7 +2792,7 @@
         <v>1893</v>
       </c>
       <c r="B295" t="n">
-        <v>1841975103.376853</v>
+        <v>1682085404.292027</v>
       </c>
     </row>
     <row r="296">
@@ -2800,7 +2800,7 @@
         <v>1894</v>
       </c>
       <c r="B296" t="n">
-        <v>1864845192.005968</v>
+        <v>1702970291.502161</v>
       </c>
     </row>
     <row r="297">
@@ -2808,7 +2808,7 @@
         <v>1895</v>
       </c>
       <c r="B297" t="n">
-        <v>1888096365.791518</v>
+        <v>1724203184.381999</v>
       </c>
     </row>
     <row r="298">
@@ -2816,7 +2816,7 @@
         <v>1896</v>
       </c>
       <c r="B298" t="n">
-        <v>1911735820.55444</v>
+        <v>1745790654.130767</v>
       </c>
     </row>
     <row r="299">
@@ -2824,7 +2824,7 @@
         <v>1897</v>
       </c>
       <c r="B299" t="n">
-        <v>1935770865.598042</v>
+        <v>1767739375.579406</v>
       </c>
     </row>
     <row r="300">
@@ -2832,7 +2832,7 @@
         <v>1898</v>
       </c>
       <c r="B300" t="n">
-        <v>1960208922.523726</v>
+        <v>1790056126.109089</v>
       </c>
     </row>
     <row r="301">
@@ -2840,7 +2840,7 @@
         <v>1899</v>
       </c>
       <c r="B301" t="n">
-        <v>1985057523.816722</v>
+        <v>1812747784.359733</v>
       </c>
     </row>
     <row r="302">
@@ -2848,7 +2848,7 @@
         <v>1900</v>
       </c>
       <c r="B302" t="n">
-        <v>2010324311.190445</v>
+        <v>1835821328.718055</v>
       </c>
     </row>
     <row r="303">
@@ -2856,7 +2856,7 @@
         <v>1901</v>
       </c>
       <c r="B303" t="n">
-        <v>2036017033.677926</v>
+        <v>1859283835.574681</v>
       </c>
     </row>
     <row r="304">
@@ -2864,7 +2864,7 @@
         <v>1902</v>
       </c>
       <c r="B304" t="n">
-        <v>2062143545.458642</v>
+        <v>1883142477.339622</v>
       </c>
     </row>
     <row r="305">
@@ -2872,7 +2872,7 @@
         <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>2088711803.409025</v>
+        <v>1907404520.205388</v>
       </c>
     </row>
     <row r="306">
@@ -2880,7 +2880,7 @@
         <v>1904</v>
       </c>
       <c r="B306" t="n">
-        <v>2115729864.36483</v>
+        <v>1932077321.647013</v>
       </c>
     </row>
     <row r="307">
@@ -2888,7 +2888,7 @@
         <v>1905</v>
       </c>
       <c r="B307" t="n">
-        <v>2143205882.083616</v>
+        <v>1957168327.648185</v>
       </c>
     </row>
     <row r="308">
@@ -2896,7 +2896,7 @@
         <v>1906</v>
       </c>
       <c r="B308" t="n">
-        <v>2171148103.895502</v>
+        <v>1982685069.642742</v>
       </c>
     </row>
     <row r="309">
@@ -2904,7 +2904,7 @@
         <v>1907</v>
       </c>
       <c r="B309" t="n">
-        <v>2199564867.03058</v>
+        <v>2008635161.160866</v>
       </c>
     </row>
     <row r="310">
@@ -2912,7 +2912,7 @@
         <v>1908</v>
       </c>
       <c r="B310" t="n">
-        <v>2228464594.611356</v>
+        <v>2035026294.169408</v>
       </c>
     </row>
     <row r="311">
@@ -2920,7 +2920,7 @@
         <v>1909</v>
       </c>
       <c r="B311" t="n">
-        <v>2257855791.298823</v>
+        <v>2061866235.095879</v>
       </c>
     </row>
     <row r="312">
@@ -2928,7 +2928,7 @@
         <v>1910</v>
       </c>
       <c r="B312" t="n">
-        <v>2287747038.580992</v>
+        <v>2089162820.525966</v>
       </c>
     </row>
     <row r="313">
@@ -2936,7 +2936,7 @@
         <v>1911</v>
       </c>
       <c r="B313" t="n">
-        <v>2318146989.692962</v>
+        <v>2116923952.564555</v>
       </c>
     </row>
     <row r="314">
@@ -2944,7 +2944,7 @@
         <v>1912</v>
       </c>
       <c r="B314" t="n">
-        <v>2349064364.157949</v>
+        <v>2145157593.850608</v>
       </c>
     </row>
     <row r="315">
@@ -2952,7 +2952,7 @@
         <v>1913</v>
       </c>
       <c r="B315" t="n">
-        <v>2380507941.939087</v>
+        <v>2173871762.216625</v>
       </c>
     </row>
     <row r="316">
@@ -2960,7 +2960,7 @@
         <v>1914</v>
       </c>
       <c r="B316" t="n">
-        <v>2412486557.192305</v>
+        <v>2203074524.983774</v>
       </c>
     </row>
     <row r="317">
@@ -2968,7 +2968,7 @@
         <v>1915</v>
       </c>
       <c r="B317" t="n">
-        <v>2445009091.611047</v>
+        <v>2232773992.884324</v>
       </c>
     </row>
     <row r="318">
@@ -2976,7 +2976,7 @@
         <v>1916</v>
       </c>
       <c r="B318" t="n">
-        <v>2478084467.35429</v>
+        <v>2262978313.603526</v>
       </c>
     </row>
     <row r="319">
@@ -2984,7 +2984,7 @@
         <v>1917</v>
       </c>
       <c r="B319" t="n">
-        <v>2511721639.549895</v>
+        <v>2293695664.933714</v>
       </c>
     </row>
     <row r="320">
@@ -2992,7 +2992,7 @@
         <v>1918</v>
       </c>
       <c r="B320" t="n">
-        <v>2545929588.366128</v>
+        <v>2324934247.534025</v>
       </c>
     </row>
     <row r="321">
@@ -3000,7 +3000,7 @@
         <v>1919</v>
       </c>
       <c r="B321" t="n">
-        <v>2580717310.645025</v>
+        <v>2356702277.29003</v>
       </c>
     </row>
     <row r="322">
@@ -3008,7 +3008,7 @@
         <v>1920</v>
       </c>
       <c r="B322" t="n">
-        <v>2616093811.092105</v>
+        <v>2389007977.268206</v>
       </c>
     </row>
     <row r="323">
@@ -3016,7 +3016,7 @@
         <v>1921</v>
       </c>
       <c r="B323" t="n">
-        <v>2652068093.01803</v>
+        <v>2421859569.261254</v>
       </c>
     </row>
     <row r="324">
@@ -3024,7 +3024,7 @@
         <v>1922</v>
       </c>
       <c r="B324" t="n">
-        <v>2688649148.628759</v>
+        <v>2455265264.921091</v>
       </c>
     </row>
     <row r="325">
@@ -3032,7 +3032,7 @@
         <v>1923</v>
       </c>
       <c r="B325" t="n">
-        <v>2725845948.862006</v>
+        <v>2489233256.477547</v>
       </c>
     </row>
     <row r="326">
@@ -3040,7 +3040,7 @@
         <v>1924</v>
       </c>
       <c r="B326" t="n">
-        <v>2763667432.768966</v>
+        <v>2523771707.0418</v>
       </c>
     </row>
     <row r="327">
@@ -3048,7 +3048,7 @@
         <v>1925</v>
       </c>
       <c r="B327" t="n">
-        <v>2802122496.441656</v>
+        <v>2558888740.494839</v>
       </c>
     </row>
     <row r="328">
@@ -3056,7 +3056,7 @@
         <v>1926</v>
       </c>
       <c r="B328" t="n">
-        <v>2841219981.487561</v>
+        <v>2594592430.962573</v>
       </c>
     </row>
     <row r="329">
@@ -3064,7 +3064,7 @@
         <v>1927</v>
       </c>
       <c r="B329" t="n">
-        <v>2880968663.054831</v>
+        <v>2630890791.880472</v>
       </c>
     </row>
     <row r="330">
@@ -3072,7 +3072,7 @@
         <v>1928</v>
       </c>
       <c r="B330" t="n">
-        <v>2921377237.412796</v>
+        <v>2667791764.652132</v>
       </c>
     </row>
     <row r="331">
@@ -3080,7 +3080,7 @@
         <v>1929</v>
       </c>
       <c r="B331" t="n">
-        <v>2962454309.094244</v>
+        <v>2705303206.907649</v>
       </c>
     </row>
     <row r="332">
@@ -3088,7 +3088,7 @@
         <v>1930</v>
       </c>
       <c r="B332" t="n">
-        <v>3004208377.607625</v>
+        <v>2743432880.369253</v>
       </c>
     </row>
     <row r="333">
@@ -3096,7 +3096,7 @@
         <v>1931</v>
       </c>
       <c r="B333" t="n">
-        <v>3046647823.729137</v>
+        <v>2782188438.33329</v>
       </c>
     </row>
     <row r="334">
@@ -3104,7 +3104,7 @@
         <v>1932</v>
       </c>
       <c r="B334" t="n">
-        <v>3089780895.38659</v>
+        <v>2821577412.779401</v>
       </c>
     </row>
     <row r="335">
@@ -3112,7 +3112,7 @@
         <v>1933</v>
       </c>
       <c r="B335" t="n">
-        <v>3133615693.148749</v>
+        <v>2861607201.119454</v>
       </c>
     </row>
     <row r="336">
@@ -3120,7 +3120,7 @@
         <v>1934</v>
       </c>
       <c r="B336" t="n">
-        <v>3178160155.336008</v>
+        <v>2902285052.60065</v>
       </c>
     </row>
     <row r="337">
@@ -3128,7 +3128,7 @@
         <v>1935</v>
       </c>
       <c r="B337" t="n">
-        <v>3223422042.770209</v>
+        <v>2943618054.379124</v>
       </c>
     </row>
     <row r="338">
@@ -3136,7 +3136,7 @@
         <v>1936</v>
       </c>
       <c r="B338" t="n">
-        <v>3269408923.183571</v>
+        <v>2985613117.282215</v>
       </c>
     </row>
     <row r="339">
@@ -3144,7 +3144,7 @@
         <v>1937</v>
       </c>
       <c r="B339" t="n">
-        <v>3316128155.308713</v>
+        <v>3028276961.279542</v>
       </c>
     </row>
     <row r="340">
@@ -3152,7 +3152,7 @@
         <v>1938</v>
       </c>
       <c r="B340" t="n">
-        <v>3363586872.674184</v>
+        <v>3071616100.685135</v>
       </c>
     </row>
     <row r="341">
@@ -3160,7 +3160,7 @@
         <v>1939</v>
       </c>
       <c r="B341" t="n">
-        <v>3411791967.131815</v>
+        <v>3115636829.114661</v>
       </c>
     </row>
     <row r="342">
@@ -3168,7 +3168,7 @@
         <v>1940</v>
       </c>
       <c r="B342" t="n">
-        <v>3460750072.144592</v>
+        <v>3160345204.223972</v>
       </c>
     </row>
     <row r="343">
@@ -3176,7 +3176,7 @@
         <v>1941</v>
       </c>
       <c r="B343" t="n">
-        <v>3510467545.865902</v>
+        <v>3205747032.257137</v>
       </c>
     </row>
     <row r="344">
@@ -3184,7 +3184,7 @@
         <v>1942</v>
       </c>
       <c r="B344" t="n">
-        <v>3560950454.043226</v>
+        <v>3251847852.434142</v>
       </c>
     </row>
     <row r="345">
@@ -3192,7 +3192,7 @@
         <v>1943</v>
       </c>
       <c r="B345" t="n">
-        <v>3612204552.781494</v>
+        <v>3298652921.210441</v>
       </c>
     </row>
     <row r="346">
@@ -3200,7 +3200,7 @@
         <v>1944</v>
       </c>
       <c r="B346" t="n">
-        <v>3664235271.203397</v>
+        <v>3346167196.442428</v>
       </c>
     </row>
     <row r="347">
@@ -3208,7 +3208,7 @@
         <v>1945</v>
       </c>
       <c r="B347" t="n">
-        <v>3717047694.046261</v>
+        <v>3394395321.494941</v>
       </c>
     </row>
     <row r="348">
@@ -3216,7 +3216,7 @@
         <v>1946</v>
       </c>
       <c r="B348" t="n">
-        <v>3770646544.236752</v>
+        <v>3443341609.328569</v>
       </c>
     </row>
     <row r="349">
@@ -3224,7 +3224,7 @@
         <v>1947</v>
       </c>
       <c r="B349" t="n">
-        <v>3825036165.487029</v>
+        <v>3493010026.606489</v>
       </c>
     </row>
     <row r="350">
@@ -3232,7 +3232,7 @@
         <v>1948</v>
       </c>
       <c r="B350" t="n">
-        <v>3880220504.957452</v>
+        <v>3543404177.862126</v>
       </c>
     </row>
     <row r="351">
@@ -3240,7 +3240,7 @@
         <v>1949</v>
       </c>
       <c r="B351" t="n">
-        <v>3936203096.032964</v>
+        <v>3594527289.770608</v>
       </c>
     </row>
     <row r="352">
@@ -3248,7 +3248,7 @@
         <v>1950</v>
       </c>
       <c r="B352" t="n">
-        <v>3992987041.261741</v>
+        <v>3646382195.568377</v>
       </c>
     </row>
     <row r="353">
@@ -3256,7 +3256,7 @@
         <v>1951</v>
       </c>
       <c r="B353" t="n">
-        <v>4050574995.506228</v>
+        <v>3698971319.666801</v>
       </c>
     </row>
     <row r="354">
@@ -3264,7 +3264,7 @@
         <v>1952</v>
       </c>
       <c r="B354" t="n">
-        <v>4108969149.358053</v>
+        <v>3752296662.506702</v>
       </c>
     </row>
     <row r="355">
@@ -3272,7 +3272,7 @@
         <v>1953</v>
       </c>
       <c r="B355" t="n">
-        <v>4168171212.869344</v>
+        <v>3806359785.70188</v>
       </c>
     </row>
     <row r="356">
@@ -3280,7 +3280,7 @@
         <v>1954</v>
       </c>
       <c r="B356" t="n">
-        <v>4228182399.654155</v>
+        <v>3861161797.520563</v>
       </c>
     </row>
     <row r="357">
@@ -3288,7 +3288,7 @@
         <v>1955</v>
       </c>
       <c r="B357" t="n">
-        <v>4289003411.414266</v>
+        <v>3916703338.754424</v>
       </c>
     </row>
     <row r="358">
@@ -3296,7 +3296,7 @@
         <v>1956</v>
       </c>
       <c r="B358" t="n">
-        <v>4353231107.048937</v>
+        <v>3984682261.977211</v>
       </c>
     </row>
     <row r="359">
@@ -3304,7 +3304,7 @@
         <v>1957</v>
       </c>
       <c r="B359" t="n">
-        <v>4418302044.306086</v>
+        <v>4053551940.664236</v>
       </c>
     </row>
     <row r="360">
@@ -3312,7 +3312,7 @@
         <v>1958</v>
       </c>
       <c r="B360" t="n">
-        <v>4484215360.260827</v>
+        <v>4123311798.291022</v>
       </c>
     </row>
     <row r="361">
@@ -3320,7 +3320,7 @@
         <v>1959</v>
       </c>
       <c r="B361" t="n">
-        <v>4550969605.965831</v>
+        <v>4193960660.109431</v>
       </c>
     </row>
     <row r="362">
@@ -3328,7 +3328,7 @@
         <v>1960</v>
       </c>
       <c r="B362" t="n">
-        <v>4618562733.55697</v>
+        <v>4265496740.045152</v>
       </c>
     </row>
     <row r="363">
@@ -3336,7 +3336,7 @@
         <v>1961</v>
       </c>
       <c r="B363" t="n">
-        <v>4686992084.141918</v>
+        <v>4337917628.412862</v>
       </c>
     </row>
     <row r="364">
@@ -3344,7 +3344,7 @@
         <v>1962</v>
       </c>
       <c r="B364" t="n">
-        <v>4756254376.526731</v>
+        <v>4411220280.506002</v>
       </c>
     </row>
     <row r="365">
@@ -3352,7 +3352,7 @@
         <v>1963</v>
       </c>
       <c r="B365" t="n">
-        <v>4826345696.834216</v>
+        <v>4485401006.116335</v>
       </c>
     </row>
     <row r="366">
@@ -3360,7 +3360,7 @@
         <v>1964</v>
       </c>
       <c r="B366" t="n">
-        <v>4897261489.066252</v>
+        <v>4560455460.036959</v>
       </c>
     </row>
     <row r="367">
@@ -3368,7 +3368,7 @@
         <v>1965</v>
       </c>
       <c r="B367" t="n">
-        <v>4968996546.660433</v>
+        <v>4636378633.60038</v>
       </c>
     </row>
     <row r="368">
@@ -3376,7 +3376,7 @@
         <v>1966</v>
       </c>
       <c r="B368" t="n">
-        <v>5041545005.08915</v>
+        <v>4713164847.30077</v>
       </c>
     </row>
     <row r="369">
@@ -3384,7 +3384,7 @@
         <v>1967</v>
       </c>
       <c r="B369" t="n">
-        <v>5114900335.546857</v>
+        <v>4790807744.546971</v>
       </c>
     </row>
     <row r="370">
@@ -3392,7 +3392,7 @@
         <v>1968</v>
       </c>
       <c r="B370" t="n">
-        <v>5189055339.768386</v>
+        <v>4869300286.58978</v>
       </c>
     </row>
     <row r="371">
@@ -3400,7 +3400,7 @@
         <v>1969</v>
       </c>
       <c r="B371" t="n">
-        <v>5264002146.018265</v>
+        <v>4948634748.663688</v>
       </c>
     </row>
     <row r="372">
@@ -3408,7 +3408,7 @@
         <v>1970</v>
       </c>
       <c r="B372" t="n">
-        <v>5339732206.287651</v>
+        <v>5028802717.379797</v>
       </c>
     </row>
     <row r="373">
@@ -3416,7 +3416,7 @@
         <v>1971</v>
       </c>
       <c r="B373" t="n">
-        <v>5396315193.72282</v>
+        <v>5077955292.845696</v>
       </c>
     </row>
     <row r="374">
@@ -3424,7 +3424,7 @@
         <v>1972</v>
       </c>
       <c r="B374" t="n">
-        <v>5453452977.058871</v>
+        <v>5127587909.945079</v>
       </c>
     </row>
     <row r="375">
@@ -3432,7 +3432,7 @@
         <v>1973</v>
       </c>
       <c r="B375" t="n">
-        <v>5511136405.557516</v>
+        <v>5177692372.893671</v>
       </c>
     </row>
     <row r="376">
@@ -3440,7 +3440,7 @@
         <v>1974</v>
       </c>
       <c r="B376" t="n">
-        <v>5569355773.632296</v>
+        <v>5228259991.690424</v>
       </c>
     </row>
     <row r="377">
@@ -3448,7 +3448,7 @@
         <v>1975</v>
       </c>
       <c r="B377" t="n">
-        <v>5628100822.635299</v>
+        <v>5279281583.192797</v>
       </c>
     </row>
     <row r="378">
@@ -3456,7 +3456,7 @@
         <v>1976</v>
       </c>
       <c r="B378" t="n">
-        <v>5687360743.654866</v>
+        <v>5330747473.040835</v>
       </c>
     </row>
     <row r="379">
@@ -3464,7 +3464,7 @@
         <v>1977</v>
       </c>
       <c r="B379" t="n">
-        <v>5747124181.330217</v>
+        <v>5382647498.432894</v>
       </c>
     </row>
     <row r="380">
@@ -3472,7 +3472,7 @@
         <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>5807379238.685184</v>
+        <v>5434971011.75249</v>
       </c>
     </row>
     <row r="381">
@@ -3480,7 +3480,7 @@
         <v>1979</v>
       </c>
       <c r="B381" t="n">
-        <v>5868113482.979787</v>
+        <v>5487706885.042855</v>
       </c>
     </row>
     <row r="382">
@@ -3488,7 +3488,7 @@
         <v>1980</v>
       </c>
       <c r="B382" t="n">
-        <v>5929313952.574836</v>
+        <v>5540843515.322532</v>
       </c>
     </row>
     <row r="383">
@@ -3496,7 +3496,7 @@
         <v>1981</v>
       </c>
       <c r="B383" t="n">
-        <v>5981217614.480818</v>
+        <v>5569900139.928828</v>
       </c>
     </row>
     <row r="384">
@@ -3504,7 +3504,7 @@
         <v>1982</v>
       </c>
       <c r="B384" t="n">
-        <v>6033475581.989175</v>
+        <v>5599120989.210577</v>
       </c>
     </row>
     <row r="385">
@@ -3512,7 +3512,7 @@
         <v>1983</v>
       </c>
       <c r="B385" t="n">
-        <v>6086074465.866705</v>
+        <v>5628495855.863245</v>
       </c>
     </row>
     <row r="386">
@@ -3520,7 +3520,7 @@
         <v>1984</v>
       </c>
       <c r="B386" t="n">
-        <v>6139000422.814571</v>
+        <v>5658014181.023872</v>
       </c>
     </row>
     <row r="387">
@@ -3528,7 +3528,7 @@
         <v>1985</v>
       </c>
       <c r="B387" t="n">
-        <v>6192239164.804446</v>
+        <v>5687665057.571909</v>
       </c>
     </row>
     <row r="388">
@@ -3536,7 +3536,7 @@
         <v>1986</v>
       </c>
       <c r="B388" t="n">
-        <v>6245775969.18467</v>
+        <v>5717437233.816079</v>
       </c>
     </row>
     <row r="389">
@@ -3544,7 +3544,7 @@
         <v>1987</v>
       </c>
       <c r="B389" t="n">
-        <v>6299595689.533042</v>
+        <v>5747319117.553486</v>
       </c>
     </row>
     <row r="390">
@@ -3552,7 +3552,7 @@
         <v>1988</v>
       </c>
       <c r="B390" t="n">
-        <v>6353682767.230896</v>
+        <v>5777298780.48706</v>
       </c>
     </row>
     <row r="391">
@@ -3560,7 +3560,7 @@
         <v>1989</v>
       </c>
       <c r="B391" t="n">
-        <v>6408021243.731395</v>
+        <v>5807363962.987238</v>
       </c>
     </row>
     <row r="392">
@@ -3568,7 +3568,7 @@
         <v>1990</v>
       </c>
       <c r="B392" t="n">
-        <v>6462594773.493373</v>
+        <v>5837502079.184451</v>
       </c>
     </row>
     <row r="393">
@@ -3576,7 +3576,7 @@
         <v>1991</v>
       </c>
       <c r="B393" t="n">
-        <v>6520548722.101016</v>
+        <v>5900013081.677393</v>
       </c>
     </row>
     <row r="394">
@@ -3584,7 +3584,7 @@
         <v>1992</v>
       </c>
       <c r="B394" t="n">
-        <v>6578725532.514303</v>
+        <v>5962791674.97856</v>
       </c>
     </row>
     <row r="395">
@@ -3592,7 +3592,7 @@
         <v>1993</v>
       </c>
       <c r="B395" t="n">
-        <v>6637107375.879468</v>
+        <v>6025820177.946781</v>
       </c>
     </row>
     <row r="396">
@@ -3600,7 +3600,7 @@
         <v>1994</v>
       </c>
       <c r="B396" t="n">
-        <v>6695676092.054959</v>
+        <v>6089080585.437931</v>
       </c>
     </row>
     <row r="397">
@@ -3608,7 +3608,7 @@
         <v>1995</v>
       </c>
       <c r="B397" t="n">
-        <v>6754413206.511232</v>
+        <v>6152554586.125959</v>
       </c>
     </row>
     <row r="398">
@@ -3616,7 +3616,7 @@
         <v>1996</v>
       </c>
       <c r="B398" t="n">
-        <v>6813299947.734759</v>
+        <v>6216223580.859674</v>
       </c>
     </row>
     <row r="399">
@@ -3624,7 +3624,7 @@
         <v>1997</v>
       </c>
       <c r="B399" t="n">
-        <v>6872317265.103123</v>
+        <v>6280068701.526218</v>
       </c>
     </row>
     <row r="400">
@@ -3632,7 +3632,7 @@
         <v>1998</v>
       </c>
       <c r="B400" t="n">
-        <v>6931445847.198977</v>
+        <v>6344070830.393755</v>
       </c>
     </row>
     <row r="401">
@@ -3640,7 +3640,7 @@
         <v>1999</v>
       </c>
       <c r="B401" t="n">
-        <v>6990666140.531935</v>
+        <v>6408210619.908341</v>
       </c>
     </row>
     <row r="402">
@@ -3648,7 +3648,7 @@
         <v>2000</v>
       </c>
       <c r="B402" t="n">
-        <v>7049958368.639239</v>
+        <v>6472468512.92214</v>
       </c>
     </row>
     <row r="403">
@@ -3656,7 +3656,7 @@
         <v>2001</v>
       </c>
       <c r="B403" t="n">
-        <v>7076263711.408745</v>
+        <v>6528828817.80188</v>
       </c>
     </row>
     <row r="404">
@@ -3664,7 +3664,7 @@
         <v>2002</v>
       </c>
       <c r="B404" t="n">
-        <v>7102427837.026162</v>
+        <v>6585225695.208141</v>
       </c>
     </row>
     <row r="405">
@@ -3672,7 +3672,7 @@
         <v>2003</v>
       </c>
       <c r="B405" t="n">
-        <v>7128434091.901073</v>
+        <v>6641639973.734701</v>
       </c>
     </row>
     <row r="406">
@@ -3680,7 +3680,7 @@
         <v>2004</v>
       </c>
       <c r="B406" t="n">
-        <v>7154265581.226211</v>
+        <v>6698052333.560192</v>
       </c>
     </row>
     <row r="407">
@@ -3688,7 +3688,7 @@
         <v>2005</v>
       </c>
       <c r="B407" t="n">
-        <v>7179905177.295275</v>
+        <v>6754443325.620531</v>
       </c>
     </row>
     <row r="408">
@@ -3696,7 +3696,7 @@
         <v>2006</v>
       </c>
       <c r="B408" t="n">
-        <v>7205335528.112292</v>
+        <v>6810793391.15343</v>
       </c>
     </row>
     <row r="409">
@@ -3704,7 +3704,7 @@
         <v>2007</v>
       </c>
       <c r="B409" t="n">
-        <v>7230539066.320404</v>
+        <v>6867082881.625766</v>
       </c>
     </row>
     <row r="410">
@@ -3712,7 +3712,7 @@
         <v>2008</v>
       </c>
       <c r="B410" t="n">
-        <v>7255498018.483045</v>
+        <v>6923292079.058155</v>
       </c>
     </row>
     <row r="411">
@@ -3720,7 +3720,7 @@
         <v>2009</v>
       </c>
       <c r="B411" t="n">
-        <v>7280194414.755745</v>
+        <v>6979401216.765257</v>
       </c>
     </row>
     <row r="412">
@@ -3728,7 +3728,7 @@
         <v>2010</v>
       </c>
       <c r="B412" t="n">
-        <v>7304610098.991947</v>
+        <v>7035390500.533822</v>
       </c>
     </row>
     <row r="413">
@@ -3736,7 +3736,7 @@
         <v>2011</v>
       </c>
       <c r="B413" t="n">
-        <v>7331015057.657162</v>
+        <v>7090940057.342511</v>
       </c>
     </row>
     <row r="414">
@@ -3744,7 +3744,7 @@
         <v>2012</v>
       </c>
       <c r="B414" t="n">
-        <v>7357111875.136786</v>
+        <v>7146328943.721554</v>
       </c>
     </row>
     <row r="415">
@@ -3752,7 +3752,7 @@
         <v>2013</v>
       </c>
       <c r="B415" t="n">
-        <v>7382881760.628609</v>
+        <v>7201537433.266566</v>
       </c>
     </row>
     <row r="416">
@@ -3760,7 +3760,7 @@
         <v>2014</v>
       </c>
       <c r="B416" t="n">
-        <v>7408305797.206979</v>
+        <v>7256545859.792903</v>
       </c>
     </row>
     <row r="417">
@@ -3768,7 +3768,7 @@
         <v>2015</v>
       </c>
       <c r="B417" t="n">
-        <v>7433364955.634463</v>
+        <v>7311334641.034265</v>
       </c>
     </row>
     <row r="418">
@@ -3776,7 +3776,7 @@
         <v>2016</v>
       </c>
       <c r="B418" t="n">
-        <v>7458040108.951556</v>
+        <v>7365884302.961858</v>
       </c>
     </row>
     <row r="419">
@@ -3784,7 +3784,7 @@
         <v>2017</v>
       </c>
       <c r="B419" t="n">
-        <v>7482312047.919995</v>
+        <v>7420175504.755412</v>
       </c>
     </row>
     <row r="420">
@@ -3792,7 +3792,7 @@
         <v>2018</v>
       </c>
       <c r="B420" t="n">
-        <v>7506161497.399452</v>
+        <v>7474189064.455079</v>
       </c>
     </row>
     <row r="421">
@@ -3800,7 +3800,7 @@
         <v>2019</v>
       </c>
       <c r="B421" t="n">
-        <v>7529569133.740898</v>
+        <v>7527905985.319976</v>
       </c>
     </row>
     <row r="422">
@@ -3808,7 +3808,7 @@
         <v>2020</v>
       </c>
       <c r="B422" t="n">
-        <v>7552515603.282678</v>
+        <v>7581307482.914174</v>
       </c>
     </row>
     <row r="423">
@@ -3816,7 +3816,7 @@
         <v>2021</v>
       </c>
       <c r="B423" t="n">
-        <v>7574981542.037974</v>
+        <v>7634375012.935181</v>
       </c>
     </row>
     <row r="424">
@@ -3824,7 +3824,7 @@
         <v>2022</v>
       </c>
       <c r="B424" t="n">
-        <v>7596947596.663826</v>
+        <v>7687090299.7925</v>
       </c>
     </row>
     <row r="425">
@@ -3832,7 +3832,7 @@
         <v>2023</v>
       </c>
       <c r="B425" t="n">
-        <v>7618394446.802878</v>
+        <v>7739435365.935258</v>
       </c>
     </row>
     <row r="426">
@@ -3840,7 +3840,7 @@
         <v>2024</v>
       </c>
       <c r="B426" t="n">
-        <v>7639302828.889216</v>
+        <v>7791392561.917584</v>
       </c>
     </row>
     <row r="427">
@@ -3848,7 +3848,7 @@
         <v>2025</v>
       </c>
       <c r="B427" t="n">
-        <v>7659653561.508558</v>
+        <v>7842944597.179232</v>
       </c>
     </row>
     <row r="428">
@@ -3856,7 +3856,7 @@
         <v>2026</v>
       </c>
       <c r="B428" t="n">
-        <v>7679427572.401794</v>
+        <v>7894074571.506033</v>
       </c>
     </row>
     <row r="429">
@@ -3864,7 +3864,7 @@
         <v>2027</v>
       </c>
       <c r="B429" t="n">
-        <v>7698605927.197379</v>
+        <v>7944766007.120725</v>
       </c>
     </row>
     <row r="430">
@@ -3872,7 +3872,7 @@
         <v>2028</v>
       </c>
       <c r="B430" t="n">
-        <v>7717169859.954776</v>
+        <v>7995002881.339713</v>
       </c>
     </row>
     <row r="431">
@@ -3880,7 +3880,7 @@
         <v>2029</v>
       </c>
       <c r="B431" t="n">
-        <v>7735100805.595551</v>
+        <v>8044769659.715111</v>
       </c>
     </row>
     <row r="432">
@@ -3888,7 +3888,7 @@
         <v>2030</v>
       </c>
       <c r="B432" t="n">
-        <v>7752380434.292585</v>
+        <v>8094051329.564299</v>
       </c>
     </row>
     <row r="433">
@@ -3896,7 +3896,7 @@
         <v>2031</v>
       </c>
       <c r="B433" t="n">
-        <v>7768990687.88014</v>
+        <v>8142833433.771886</v>
       </c>
     </row>
     <row r="434">
@@ -3904,7 +3904,7 @@
         <v>2032</v>
       </c>
       <c r="B434" t="n">
-        <v>7784913818.338345</v>
+        <v>8191102104.730627</v>
       </c>
     </row>
     <row r="435">
@@ -3912,7 +3912,7 @@
         <v>2033</v>
       </c>
       <c r="B435" t="n">
-        <v>7800132428.395378</v>
+        <v>8238844098.269916</v>
       </c>
     </row>
     <row r="436">
@@ -3920,7 +3920,7 @@
         <v>2034</v>
       </c>
       <c r="B436" t="n">
-        <v>7814629514.278697</v>
+        <v>8286046827.401918</v>
       </c>
     </row>
     <row r="437">
@@ -3928,7 +3928,7 @@
         <v>2035</v>
       </c>
       <c r="B437" t="n">
-        <v>7828388510.63301</v>
+        <v>8332698395.698337</v>
       </c>
     </row>
     <row r="438">
@@ -3936,7 +3936,7 @@
         <v>2036</v>
       </c>
       <c r="B438" t="n">
-        <v>7841393337.608129</v>
+        <v>8378787630.093056</v>
       </c>
     </row>
     <row r="439">
@@ -3944,7 +3944,7 @@
         <v>2037</v>
       </c>
       <c r="B439" t="n">
-        <v>7853628450.103008</v>
+        <v>8424304112.890718</v>
       </c>
     </row>
     <row r="440">
@@ -3952,7 +3952,7 @@
         <v>2038</v>
       </c>
       <c r="B440" t="n">
-        <v>7865078889.134446</v>
+        <v>8469238212.746228</v>
       </c>
     </row>
     <row r="441">
@@ -3960,7 +3960,7 @@
         <v>2039</v>
       </c>
       <c r="B441" t="n">
-        <v>7875730335.279212</v>
+        <v>8513581114.367667</v>
       </c>
     </row>
     <row r="442">
@@ -3968,7 +3968,7 @@
         <v>2040</v>
       </c>
       <c r="B442" t="n">
-        <v>7885569164.117217</v>
+        <v>8557324846.684534</v>
       </c>
     </row>
     <row r="443">
@@ -3976,7 +3976,7 @@
         <v>2041</v>
       </c>
       <c r="B443" t="n">
-        <v>7894582503.5806</v>
+        <v>8600462309.214813</v>
       </c>
     </row>
     <row r="444">
@@ -3984,7 +3984,7 @@
         <v>2042</v>
       </c>
       <c r="B444" t="n">
-        <v>7902758293.089511</v>
+        <v>8642987296.3592</v>
       </c>
     </row>
     <row r="445">
@@ -3992,7 +3992,7 @@
         <v>2043</v>
       </c>
       <c r="B445" t="n">
-        <v>7910085344.329617</v>
+        <v>8684894519.348305</v>
       </c>
     </row>
     <row r="446">
@@ -4000,7 +4000,7 @@
         <v>2044</v>
       </c>
       <c r="B446" t="n">
-        <v>7916553403.499546</v>
+        <v>8726179625.569881</v>
       </c>
     </row>
     <row r="447">
@@ -4008,7 +4008,7 @@
         <v>2045</v>
       </c>
       <c r="B447" t="n">
-        <v>7922153214.828052</v>
+        <v>8766839215.007626</v>
       </c>
     </row>
     <row r="448">
@@ -4016,7 +4016,7 @@
         <v>2046</v>
       </c>
       <c r="B448" t="n">
-        <v>7926876585.131588</v>
+        <v>8806870853.531363</v>
       </c>
     </row>
     <row r="449">
@@ -4024,7 +4024,7 @@
         <v>2047</v>
       </c>
       <c r="B449" t="n">
-        <v>7930716449.152528</v>
+        <v>8846273082.791189</v>
       </c>
     </row>
     <row r="450">
@@ -4032,7 +4032,7 @@
         <v>2048</v>
       </c>
       <c r="B450" t="n">
-        <v>7933666935.387271</v>
+        <v>8885045426.483879</v>
       </c>
     </row>
     <row r="451">
@@ -4040,7 +4040,7 @@
         <v>2049</v>
       </c>
       <c r="B451" t="n">
-        <v>7935723432.081859</v>
+        <v>8923188392.780537</v>
       </c>
     </row>
     <row r="452">
@@ -4048,7 +4048,7 @@
         <v>2050</v>
       </c>
       <c r="B452" t="n">
-        <v>7936882653.040923</v>
+        <v>8960703472.728523</v>
       </c>
     </row>
   </sheetData>

--- a/Data/model_outputs_baseline/energy/energy_use_vector_AB.xlsx
+++ b/Data/model_outputs_baseline/energy/energy_use_vector_AB.xlsx
@@ -448,7 +448,7 @@
         <v>1600</v>
       </c>
       <c r="B2" t="n">
-        <v>298535599.0698462</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -456,7 +456,7 @@
         <v>1601</v>
       </c>
       <c r="B3" t="n">
-        <v>298884440.897094</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -464,7 +464,7 @@
         <v>1602</v>
       </c>
       <c r="B4" t="n">
-        <v>299238189.7087583</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -472,7 +472,7 @@
         <v>1603</v>
       </c>
       <c r="B5" t="n">
-        <v>299596913.5904114</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -480,7 +480,7 @@
         <v>1604</v>
       </c>
       <c r="B6" t="n">
-        <v>299960681.519523</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -488,7 +488,7 @@
         <v>1605</v>
       </c>
       <c r="B7" t="n">
-        <v>300329563.3739607</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -496,7 +496,7 @@
         <v>1606</v>
       </c>
       <c r="B8" t="n">
-        <v>300703629.9404035</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -504,7 +504,7 @@
         <v>1607</v>
       </c>
       <c r="B9" t="n">
-        <v>301082952.9226615</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -512,7 +512,7 @@
         <v>1608</v>
       </c>
       <c r="B10" t="n">
-        <v>301467604.9499003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -520,7 +520,7 @@
         <v>1609</v>
       </c>
       <c r="B11" t="n">
-        <v>301857659.5847552</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -528,7 +528,7 @@
         <v>1610</v>
       </c>
       <c r="B12" t="n">
-        <v>302253191.3313348</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -536,7 +536,7 @@
         <v>1611</v>
       </c>
       <c r="B13" t="n">
-        <v>302654275.6431074</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -544,7 +544,7 @@
         <v>1612</v>
       </c>
       <c r="B14" t="n">
-        <v>303060988.9306619</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -552,7 +552,7 @@
         <v>1613</v>
       </c>
       <c r="B15" t="n">
-        <v>303473408.5693396</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -560,7 +560,7 @@
         <v>1614</v>
       </c>
       <c r="B16" t="n">
-        <v>303891612.9067319</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -568,7 +568,7 @@
         <v>1615</v>
       </c>
       <c r="B17" t="n">
-        <v>304315681.2700402</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -576,7 +576,7 @@
         <v>1616</v>
       </c>
       <c r="B18" t="n">
-        <v>304745693.9732935</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -584,7 +584,7 @@
         <v>1617</v>
       </c>
       <c r="B19" t="n">
-        <v>305181732.3244193</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -592,7 +592,7 @@
         <v>1618</v>
       </c>
       <c r="B20" t="n">
-        <v>305623878.6321704</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -600,7 +600,7 @@
         <v>1619</v>
       </c>
       <c r="B21" t="n">
-        <v>306072216.2128989</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -608,7 +608,7 @@
         <v>1620</v>
       </c>
       <c r="B22" t="n">
-        <v>306526829.3971856</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -616,7 +616,7 @@
         <v>1621</v>
       </c>
       <c r="B23" t="n">
-        <v>306987803.5363156</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -624,7 +624,7 @@
         <v>1622</v>
       </c>
       <c r="B24" t="n">
-        <v>307455225.0086104</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -632,7 +632,7 @@
         <v>1623</v>
       </c>
       <c r="B25" t="n">
-        <v>307929181.2256132</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -640,7 +640,7 @@
         <v>1624</v>
       </c>
       <c r="B26" t="n">
-        <v>308409760.6381342</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -648,7 +648,7 @@
         <v>1625</v>
       </c>
       <c r="B27" t="n">
-        <v>308897052.74216</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -656,7 +656,7 @@
         <v>1626</v>
       </c>
       <c r="B28" t="n">
-        <v>309391148.0846338</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -664,7 +664,7 @@
         <v>1627</v>
       </c>
       <c r="B29" t="n">
-        <v>309892138.2691134</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -672,7 +672,7 @@
         <v>1628</v>
       </c>
       <c r="B30" t="n">
-        <v>310400115.9613215</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -680,7 +680,7 @@
         <v>1629</v>
       </c>
       <c r="B31" t="n">
-        <v>310915174.8945893</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -688,7 +688,7 @@
         <v>1630</v>
       </c>
       <c r="B32" t="n">
-        <v>311437409.8752185</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -696,7 +696,7 @@
         <v>1631</v>
       </c>
       <c r="B33" t="n">
-        <v>311966916.787767</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -704,7 +704,7 @@
         <v>1632</v>
       </c>
       <c r="B34" t="n">
-        <v>312503792.6002786</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -712,7 +712,7 @@
         <v>1633</v>
       </c>
       <c r="B35" t="n">
-        <v>313048135.3694781</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -720,7 +720,7 @@
         <v>1634</v>
       </c>
       <c r="B36" t="n">
-        <v>313600044.2459438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -728,7 +728,7 @@
         <v>1635</v>
       </c>
       <c r="B37" t="n">
-        <v>314159619.4792911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -736,7 +736,7 @@
         <v>1636</v>
       </c>
       <c r="B38" t="n">
-        <v>314726962.4233807</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -744,7 +744,7 @@
         <v>1637</v>
       </c>
       <c r="B39" t="n">
-        <v>315302175.5415884</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -752,7 +752,7 @@
         <v>1638</v>
       </c>
       <c r="B40" t="n">
-        <v>315885362.4121577</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -760,7 +760,7 @@
         <v>1639</v>
       </c>
       <c r="B41" t="n">
-        <v>316476627.7336714</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -768,7 +768,7 @@
         <v>1640</v>
       </c>
       <c r="B42" t="n">
-        <v>317076077.3306741</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -776,7 +776,7 @@
         <v>1641</v>
       </c>
       <c r="B43" t="n">
-        <v>317683818.1594827</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -784,7 +784,7 @@
         <v>1642</v>
       </c>
       <c r="B44" t="n">
-        <v>318299958.3142204</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -792,7 +792,7 @@
         <v>1643</v>
       </c>
       <c r="B45" t="n">
-        <v>318924607.0331208</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -800,7 +800,7 @@
         <v>1644</v>
       </c>
       <c r="B46" t="n">
-        <v>319557874.7051392</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -808,7 +808,7 @@
         <v>1645</v>
       </c>
       <c r="B47" t="n">
-        <v>320199872.8769194</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -816,7 +816,7 @@
         <v>1646</v>
       </c>
       <c r="B48" t="n">
-        <v>320850714.2601653</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -824,7 +824,7 @@
         <v>1647</v>
       </c>
       <c r="B49" t="n">
-        <v>321510512.7394643</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -832,7 +832,7 @@
         <v>1648</v>
       </c>
       <c r="B50" t="n">
-        <v>322179383.3806182</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -840,7 +840,7 @@
         <v>1649</v>
       </c>
       <c r="B51" t="n">
-        <v>322857442.4395335</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -848,7 +848,7 @@
         <v>1650</v>
       </c>
       <c r="B52" t="n">
-        <v>323544807.3717306</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -856,7 +856,7 @@
         <v>1651</v>
       </c>
       <c r="B53" t="n">
-        <v>324241596.842528</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -864,7 +864,7 @@
         <v>1652</v>
       </c>
       <c r="B54" t="n">
-        <v>324947930.7379651</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -872,7 +872,7 @@
         <v>1653</v>
       </c>
       <c r="B55" t="n">
-        <v>325663930.1765243</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -880,7 +880,7 @@
         <v>1654</v>
       </c>
       <c r="B56" t="n">
-        <v>326389717.5217185</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -888,7 +888,7 @@
         <v>1655</v>
       </c>
       <c r="B57" t="n">
-        <v>327125416.3956066</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -896,7 +896,7 @@
         <v>1656</v>
       </c>
       <c r="B58" t="n">
-        <v>327871151.6933118</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -904,7 +904,7 @@
         <v>1657</v>
       </c>
       <c r="B59" t="n">
-        <v>328627049.5986022</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -912,7 +912,7 @@
         <v>1658</v>
       </c>
       <c r="B60" t="n">
-        <v>329393237.60061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -920,7 +920,7 @@
         <v>1659</v>
       </c>
       <c r="B61" t="n">
-        <v>330169844.511758</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -928,7 +928,7 @@
         <v>1660</v>
       </c>
       <c r="B62" t="n">
-        <v>330957000.486964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -936,7 +936,7 @@
         <v>1661</v>
       </c>
       <c r="B63" t="n">
-        <v>331754837.0441962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -944,7 +944,7 @@
         <v>1662</v>
       </c>
       <c r="B64" t="n">
-        <v>332563487.0864527</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -952,7 +952,7 @@
         <v>1663</v>
       </c>
       <c r="B65" t="n">
-        <v>333383084.9252321</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -960,7 +960,7 @@
         <v>1664</v>
       </c>
       <c r="B66" t="n">
-        <v>334213766.3055733</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -968,7 +968,7 @@
         <v>1665</v>
       </c>
       <c r="B67" t="n">
-        <v>335055668.4327305</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -976,7 +976,7 @@
         <v>1666</v>
       </c>
       <c r="B68" t="n">
-        <v>335908930.000558</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -984,7 +984,7 @@
         <v>1667</v>
       </c>
       <c r="B69" t="n">
-        <v>336773691.2216691</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -992,7 +992,7 @@
         <v>1668</v>
       </c>
       <c r="B70" t="n">
-        <v>337650093.8594401</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -1000,7 +1000,7 @@
         <v>1669</v>
       </c>
       <c r="B71" t="n">
-        <v>338538281.2619244</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -1008,7 +1008,7 @@
         <v>1670</v>
       </c>
       <c r="B72" t="n">
-        <v>339438398.3977386</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -1016,7 +1016,7 @@
         <v>1671</v>
       </c>
       <c r="B73" t="n">
-        <v>340350591.893984</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -1024,7 +1024,7 @@
         <v>1672</v>
       </c>
       <c r="B74" t="n">
-        <v>341275010.076262</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -1032,7 +1032,7 @@
         <v>1673</v>
       </c>
       <c r="B75" t="n">
-        <v>342211803.010833</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -1040,7 +1040,7 @@
         <v>1674</v>
       </c>
       <c r="B76" t="n">
-        <v>343161122.5489807</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -1048,7 +1048,7 @@
         <v>1675</v>
       </c>
       <c r="B77" t="n">
-        <v>344123122.3736196</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -1056,7 +1056,7 @@
         <v>1676</v>
       </c>
       <c r="B78" t="n">
-        <v>345097958.0481955</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -1064,7 +1064,7 @@
         <v>1677</v>
       </c>
       <c r="B79" t="n">
-        <v>346085787.0679168</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -1072,7 +1072,7 @@
         <v>1678</v>
       </c>
       <c r="B80" t="n">
-        <v>347086768.9133491</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -1080,7 +1080,7 @@
         <v>1679</v>
       </c>
       <c r="B81" t="n">
-        <v>348101065.1064045</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -1088,7 +1088,7 @@
         <v>1680</v>
       </c>
       <c r="B82" t="n">
-        <v>349128839.2687522</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -1096,7 +1096,7 @@
         <v>1681</v>
       </c>
       <c r="B83" t="n">
-        <v>350170257.1826581</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -1104,7 +1104,7 @@
         <v>1682</v>
       </c>
       <c r="B84" t="n">
-        <v>351225486.8542789</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -1112,7 +1112,7 @@
         <v>1683</v>
       </c>
       <c r="B85" t="n">
-        <v>352294698.5794067</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -1120,7 +1120,7 @@
         <v>1684</v>
       </c>
       <c r="B86" t="n">
-        <v>353378065.0116686</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -1128,7 +1128,7 @@
         <v>1685</v>
       </c>
       <c r="B87" t="n">
-        <v>354475761.2331666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -1136,7 +1136,7 @@
         <v>1686</v>
       </c>
       <c r="B88" t="n">
-        <v>355587964.8275522</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -1144,7 +1144,7 @@
         <v>1687</v>
       </c>
       <c r="B89" t="n">
-        <v>356714855.9555092</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -1152,7 +1152,7 @@
         <v>1688</v>
       </c>
       <c r="B90" t="n">
-        <v>357856617.4326103</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -1160,7 +1160,7 @@
         <v>1689</v>
       </c>
       <c r="B91" t="n">
-        <v>359013434.8095173</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -1168,7 +1168,7 @@
         <v>1690</v>
       </c>
       <c r="B92" t="n">
-        <v>360185496.4544837</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -1176,7 +1176,7 @@
         <v>1691</v>
       </c>
       <c r="B93" t="n">
-        <v>361372993.6380906</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -1184,7 +1184,7 @@
         <v>1692</v>
       </c>
       <c r="B94" t="n">
-        <v>362576120.6201741</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -1192,7 +1192,7 @@
         <v>1693</v>
       </c>
       <c r="B95" t="n">
-        <v>363795074.7388634</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -1200,7 +1200,7 @@
         <v>1694</v>
       </c>
       <c r="B96" t="n">
-        <v>365030056.5016638</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -1208,7 +1208,7 @@
         <v>1695</v>
       </c>
       <c r="B97" t="n">
-        <v>366281269.6784863</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -1216,7 +1216,7 @@
         <v>1696</v>
       </c>
       <c r="B98" t="n">
-        <v>367548921.3965454</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -1224,7 +1224,7 @@
         <v>1697</v>
       </c>
       <c r="B99" t="n">
-        <v>368833222.2370222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -1232,7 +1232,7 @@
         <v>1698</v>
       </c>
       <c r="B100" t="n">
-        <v>370134386.3333797</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -1240,7 +1240,7 @@
         <v>1699</v>
       </c>
       <c r="B101" t="n">
-        <v>371452631.4712217</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
@@ -1248,7 +1248,7 @@
         <v>1700</v>
       </c>
       <c r="B102" t="n">
-        <v>372788179.1895759</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
@@ -1256,7 +1256,7 @@
         <v>1701</v>
       </c>
       <c r="B103" t="n">
-        <v>374141254.8834684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
@@ -1264,7 +1264,7 @@
         <v>1702</v>
       </c>
       <c r="B104" t="n">
-        <v>375512087.9076511</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
@@ -1272,7 +1272,7 @@
         <v>1703</v>
       </c>
       <c r="B105" t="n">
-        <v>376900911.6813586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
@@ -1280,7 +1280,7 @@
         <v>1704</v>
       </c>
       <c r="B106" t="n">
-        <v>378307963.7939225</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
@@ -1288,7 +1288,7 @@
         <v>1705</v>
       </c>
       <c r="B107" t="n">
-        <v>379733486.1111175</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
@@ -1296,7 +1296,7 @@
         <v>1706</v>
       </c>
       <c r="B108" t="n">
-        <v>381177724.882059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
@@ -1304,7 +1304,7 @@
         <v>1707</v>
       </c>
       <c r="B109" t="n">
-        <v>382640930.84651</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
@@ -1312,7 +1312,7 @@
         <v>1708</v>
       </c>
       <c r="B110" t="n">
-        <v>384123359.3424188</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
@@ -1320,7 +1320,7 @@
         <v>1709</v>
       </c>
       <c r="B111" t="n">
-        <v>385625270.4135289</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
@@ -1328,7 +1328,7 @@
         <v>1710</v>
       </c>
       <c r="B112" t="n">
-        <v>387146928.9168817</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
@@ -1336,7 +1336,7 @@
         <v>1711</v>
       </c>
       <c r="B113" t="n">
-        <v>388688604.6300455</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
@@ -1344,7 +1344,7 @@
         <v>1712</v>
       </c>
       <c r="B114" t="n">
-        <v>390250572.3578918</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
@@ -1352,7 +1352,7 @@
         <v>1713</v>
       </c>
       <c r="B115" t="n">
-        <v>391833112.0387484</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
@@ -1360,7 +1360,7 @@
         <v>1714</v>
       </c>
       <c r="B116" t="n">
-        <v>393436508.8497466</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
@@ -1368,7 +1368,7 @@
         <v>1715</v>
       </c>
       <c r="B117" t="n">
-        <v>395061053.3111956</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
@@ -1376,7 +1376,7 @@
         <v>1716</v>
       </c>
       <c r="B118" t="n">
-        <v>396707041.389806</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
@@ -1384,7 +1384,7 @@
         <v>1717</v>
       </c>
       <c r="B119" t="n">
-        <v>398374774.6005955</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
@@ -1392,7 +1392,7 @@
         <v>1718</v>
       </c>
       <c r="B120" t="n">
-        <v>400064560.1073002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
@@ -1400,7 +1400,7 @@
         <v>1719</v>
       </c>
       <c r="B121" t="n">
-        <v>401776710.8211377</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
@@ -1408,7 +1408,7 @@
         <v>1720</v>
       </c>
       <c r="B122" t="n">
-        <v>403511545.4977571</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
@@ -1416,7 +1416,7 @@
         <v>1721</v>
       </c>
       <c r="B123" t="n">
-        <v>405269388.832218</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
@@ -1424,7 +1424,7 @@
         <v>1722</v>
       </c>
       <c r="B124" t="n">
-        <v>407050571.551856</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
@@ -1432,7 +1432,7 @@
         <v>1723</v>
       </c>
       <c r="B125" t="n">
-        <v>408855430.5068893</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
@@ -1440,7 +1440,7 @@
         <v>1724</v>
       </c>
       <c r="B126" t="n">
-        <v>410684308.7586342</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
@@ -1448,7 +1448,7 @@
         <v>1725</v>
       </c>
       <c r="B127" t="n">
-        <v>412537555.6651968</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
@@ -1456,7 +1456,7 @@
         <v>1726</v>
       </c>
       <c r="B128" t="n">
-        <v>414415526.9645393</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
@@ -1464,7 +1464,7 @@
         <v>1727</v>
       </c>
       <c r="B129" t="n">
-        <v>416318584.8547957</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
@@ -1472,7 +1472,7 @@
         <v>1728</v>
       </c>
       <c r="B130" t="n">
-        <v>418247098.0717543</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
@@ -1480,7 +1480,7 @@
         <v>1729</v>
       </c>
       <c r="B131" t="n">
-        <v>420201441.9634134</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
@@ -1488,7 +1488,7 @@
         <v>1730</v>
       </c>
       <c r="B132" t="n">
-        <v>422181998.5615395</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
@@ -1496,7 +1496,7 @@
         <v>1731</v>
       </c>
       <c r="B133" t="n">
-        <v>424189156.6501736</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
@@ -1504,7 +1504,7 @@
         <v>1732</v>
       </c>
       <c r="B134" t="n">
-        <v>426223311.8310181</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
@@ -1512,7 +1512,7 @@
         <v>1733</v>
       </c>
       <c r="B135" t="n">
-        <v>428284866.5856969</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
@@ -1520,7 +1520,7 @@
         <v>1734</v>
       </c>
       <c r="B136" t="n">
-        <v>430374230.334842</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
@@ -1528,7 +1528,7 @@
         <v>1735</v>
       </c>
       <c r="B137" t="n">
-        <v>432491819.4940169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
@@ -1536,7 +1536,7 @@
         <v>1736</v>
       </c>
       <c r="B138" t="n">
-        <v>434638057.5264836</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
@@ -1544,7 +1544,7 @@
         <v>1737</v>
       </c>
       <c r="B139" t="n">
-        <v>436813374.992824</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
@@ -1552,7 +1552,7 @@
         <v>1738</v>
       </c>
       <c r="B140" t="n">
-        <v>439018209.5974749</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
@@ -1560,7 +1560,7 @@
         <v>1739</v>
       </c>
       <c r="B141" t="n">
-        <v>441253006.2322136</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
@@ -1568,7 +1568,7 @@
         <v>1740</v>
       </c>
       <c r="B142" t="n">
-        <v>443518217.0166774</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
@@ -1576,7 +1576,7 @@
         <v>1741</v>
       </c>
       <c r="B143" t="n">
-        <v>445814301.335996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
@@ -1584,7 +1584,7 @@
         <v>1742</v>
       </c>
       <c r="B144" t="n">
-        <v>448141725.875642</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
@@ -1592,7 +1592,7 @@
         <v>1743</v>
       </c>
       <c r="B145" t="n">
-        <v>450500964.6536226</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
@@ -1600,7 +1600,7 @@
         <v>1744</v>
       </c>
       <c r="B146" t="n">
-        <v>452892499.0501389</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
@@ -1608,7 +1608,7 @@
         <v>1745</v>
       </c>
       <c r="B147" t="n">
-        <v>455316817.834874</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
@@ -1616,7 +1616,7 @@
         <v>1746</v>
       </c>
       <c r="B148" t="n">
-        <v>457774417.1920683</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
@@ -1624,7 +1624,7 @@
         <v>1747</v>
       </c>
       <c r="B149" t="n">
-        <v>460265800.7435672</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
@@ -1632,7 +1632,7 @@
         <v>1748</v>
       </c>
       <c r="B150" t="n">
-        <v>462791479.5700442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
@@ -1640,7 +1640,7 @@
         <v>1749</v>
       </c>
       <c r="B151" t="n">
-        <v>465351972.2306025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152">
@@ -1648,7 +1648,7 @@
         <v>1750</v>
       </c>
       <c r="B152" t="n">
-        <v>467947804.7809919</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
@@ -1656,7 +1656,7 @@
         <v>1751</v>
       </c>
       <c r="B153" t="n">
-        <v>470579510.7906742</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
@@ -1664,7 +1664,7 @@
         <v>1752</v>
       </c>
       <c r="B154" t="n">
-        <v>473247631.3590022</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155">
@@ -1672,7 +1672,7 @@
         <v>1753</v>
       </c>
       <c r="B155" t="n">
-        <v>475952715.1307715</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156">
@@ -1680,7 +1680,7 @@
         <v>1754</v>
       </c>
       <c r="B156" t="n">
-        <v>478695318.3114311</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157">
@@ -1688,7 +1688,7 @@
         <v>1755</v>
       </c>
       <c r="B157" t="n">
-        <v>481476004.6822467</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
@@ -1696,7 +1696,7 @@
         <v>1756</v>
       </c>
       <c r="B158" t="n">
-        <v>484295345.6157222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159">
@@ -1704,7 +1704,7 @@
         <v>1757</v>
       </c>
       <c r="B159" t="n">
-        <v>487153920.0915866</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
@@ -1712,7 +1712,7 @@
         <v>1758</v>
       </c>
       <c r="B160" t="n">
-        <v>490052314.7136862</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
@@ -1720,7 +1720,7 @@
         <v>1759</v>
       </c>
       <c r="B161" t="n">
-        <v>492991123.7281025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162">
@@ -1728,7 +1728,7 @@
         <v>1760</v>
       </c>
       <c r="B162" t="n">
-        <v>495970949.0428475</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163">
@@ -1736,7 +1736,7 @@
         <v>1761</v>
       </c>
       <c r="B163" t="n">
-        <v>498992400.2494872</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
@@ -1744,7 +1744,7 @@
         <v>1762</v>
       </c>
       <c r="B164" t="n">
-        <v>502056094.6470463</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165">
@@ -1752,7 +1752,7 @@
         <v>1763</v>
       </c>
       <c r="B165" t="n">
-        <v>505162657.2685608</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166">
@@ -1760,7 +1760,7 @@
         <v>1764</v>
       </c>
       <c r="B166" t="n">
-        <v>508312720.91065</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
@@ -1768,7 +1768,7 @@
         <v>1765</v>
       </c>
       <c r="B167" t="n">
-        <v>511506926.16648</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
@@ -1776,7 +1776,7 @@
         <v>1766</v>
       </c>
       <c r="B168" t="n">
-        <v>514745921.4624903</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
@@ -1784,7 +1784,7 @@
         <v>1767</v>
       </c>
       <c r="B169" t="n">
-        <v>518030363.0992759</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170">
@@ -1792,7 +1792,7 @@
         <v>1768</v>
       </c>
       <c r="B170" t="n">
-        <v>521360915.2969955</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
@@ -1800,7 +1800,7 @@
         <v>1769</v>
       </c>
       <c r="B171" t="n">
-        <v>524738250.2456948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172">
@@ -1808,7 +1808,7 @@
         <v>1770</v>
       </c>
       <c r="B172" t="n">
-        <v>528163048.1609281</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173">
@@ -1816,7 +1816,7 @@
         <v>1771</v>
       </c>
       <c r="B173" t="n">
-        <v>531635997.3450621</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174">
@@ -1824,7 +1824,7 @@
         <v>1772</v>
       </c>
       <c r="B174" t="n">
-        <v>535157794.2546417</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175">
@@ -1832,7 +1832,7 @@
         <v>1773</v>
       </c>
       <c r="B175" t="n">
-        <v>538729143.5742013</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
@@ -1840,7 +1840,7 @@
         <v>1774</v>
       </c>
       <c r="B176" t="n">
-        <v>542350758.296898</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177">
@@ -1848,7 +1848,7 @@
         <v>1775</v>
       </c>
       <c r="B177" t="n">
-        <v>546023359.8123447</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178">
@@ -1856,7 +1856,7 @@
         <v>1776</v>
       </c>
       <c r="B178" t="n">
-        <v>549747678.0020096</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179">
@@ -1864,7 +1864,7 @@
         <v>1777</v>
       </c>
       <c r="B179" t="n">
-        <v>553524451.3425556</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180">
@@ -1872,7 +1872,7 @@
         <v>1778</v>
       </c>
       <c r="B180" t="n">
-        <v>557354427.0174736</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
@@ -1880,7 +1880,7 @@
         <v>1779</v>
       </c>
       <c r="B181" t="n">
-        <v>561238361.0373776</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182">
@@ -1888,7 +1888,7 @@
         <v>1780</v>
       </c>
       <c r="B182" t="n">
-        <v>565177018.3693043</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183">
@@ -1896,7 +1896,7 @@
         <v>1781</v>
       </c>
       <c r="B183" t="n">
-        <v>569171173.0753658</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184">
@@ -1904,7 +1904,7 @@
         <v>1782</v>
       </c>
       <c r="B184" t="n">
-        <v>573221608.4610962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185">
@@ -1912,7 +1912,7 @@
         <v>1783</v>
       </c>
       <c r="B185" t="n">
-        <v>577329117.2338208</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186">
@@ -1920,7 +1920,7 @@
         <v>1784</v>
       </c>
       <c r="B186" t="n">
-        <v>581494501.6713798</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187">
@@ -1928,7 +1928,7 @@
         <v>1785</v>
       </c>
       <c r="B187" t="n">
-        <v>585718573.8015143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188">
@@ -1936,7 +1936,7 @@
         <v>1786</v>
       </c>
       <c r="B188" t="n">
-        <v>590002155.5922425</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189">
@@ -1944,7 +1944,7 @@
         <v>1787</v>
       </c>
       <c r="B189" t="n">
-        <v>594346079.15351</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190">
@@ -1952,7 +1952,7 @@
         <v>1788</v>
       </c>
       <c r="B190" t="n">
-        <v>598751186.9504306</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191">
@@ -1960,7 +1960,7 @@
         <v>1789</v>
       </c>
       <c r="B191" t="n">
-        <v>603218332.0283953</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192">
@@ -1968,7 +1968,7 @@
         <v>1790</v>
       </c>
       <c r="B192" t="n">
-        <v>607748378.2503328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193">
@@ -1976,7 +1976,7 @@
         <v>1791</v>
       </c>
       <c r="B193" t="n">
-        <v>612342200.5464061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194">
@@ -1984,7 +1984,7 @@
         <v>1792</v>
       </c>
       <c r="B194" t="n">
-        <v>617000685.1764038</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195">
@@ -1992,7 +1992,7 @@
         <v>1793</v>
       </c>
       <c r="B195" t="n">
-        <v>621724730.0050936</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196">
@@ -2000,7 +2000,7 @@
         <v>1794</v>
       </c>
       <c r="B196" t="n">
-        <v>626515244.7907929</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197">
@@ -2008,7 +2008,7 @@
         <v>1795</v>
       </c>
       <c r="B197" t="n">
-        <v>631373151.4874073</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198">
@@ -2016,7 +2016,7 @@
         <v>1796</v>
       </c>
       <c r="B198" t="n">
-        <v>636299384.5601815</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199">
@@ -2024,7 +2024,7 @@
         <v>1797</v>
       </c>
       <c r="B199" t="n">
-        <v>641294891.315397</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200">
@@ -2032,7 +2032,7 @@
         <v>1798</v>
       </c>
       <c r="B200" t="n">
-        <v>646360632.2442584</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201">
@@ -2040,7 +2040,7 @@
         <v>1799</v>
       </c>
       <c r="B201" t="n">
-        <v>651497581.3811926</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202">
@@ -2048,7 +2048,7 @@
         <v>1800</v>
       </c>
       <c r="B202" t="n">
-        <v>656706726.6767848</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203">
@@ -2056,7 +2056,7 @@
         <v>1801</v>
       </c>
       <c r="B203" t="n">
-        <v>661989070.3855791</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204">
@@ -2064,7 +2064,7 @@
         <v>1802</v>
       </c>
       <c r="B204" t="n">
-        <v>667345629.4689223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205">
@@ -2072,7 +2072,7 @@
         <v>1803</v>
       </c>
       <c r="B205" t="n">
-        <v>672777436.0131719</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206">
@@ -2080,7 +2080,7 @@
         <v>1804</v>
       </c>
       <c r="B206" t="n">
-        <v>678285537.6633743</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207">
@@ -2088,7 +2088,7 @@
         <v>1805</v>
       </c>
       <c r="B207" t="n">
-        <v>683870998.072673</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208">
@@ -2096,7 +2096,7 @@
         <v>1806</v>
       </c>
       <c r="B208" t="n">
-        <v>689534897.3676457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209">
@@ -2104,7 +2104,7 @@
         <v>1807</v>
       </c>
       <c r="B209" t="n">
-        <v>695278332.6297828</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210">
@@ -2112,7 +2112,7 @@
         <v>1808</v>
       </c>
       <c r="B210" t="n">
-        <v>701102418.3933207</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211">
@@ -2120,7 +2120,7 @@
         <v>1809</v>
       </c>
       <c r="B211" t="n">
-        <v>707008287.1596284</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212">
@@ -2128,7 +2128,7 @@
         <v>1810</v>
       </c>
       <c r="B212" t="n">
-        <v>712997089.9283735</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213">
@@ -2136,7 +2136,7 @@
         <v>1811</v>
       </c>
       <c r="B213" t="n">
-        <v>719069996.745663</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214">
@@ -2144,7 +2144,7 @@
         <v>1812</v>
       </c>
       <c r="B214" t="n">
-        <v>725228197.2693794</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215">
@@ -2152,7 +2152,7 @@
         <v>1813</v>
       </c>
       <c r="B215" t="n">
-        <v>731472901.3519176</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216">
@@ -2160,7 +2160,7 @@
         <v>1814</v>
       </c>
       <c r="B216" t="n">
-        <v>737805339.6405476</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217">
@@ -2168,7 +2168,7 @@
         <v>1815</v>
       </c>
       <c r="B217" t="n">
-        <v>744226764.1956073</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218">
@@ -2176,7 +2176,7 @@
         <v>1816</v>
       </c>
       <c r="B218" t="n">
-        <v>750738449.1267476</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219">
@@ -2184,7 +2184,7 @@
         <v>1817</v>
       </c>
       <c r="B219" t="n">
-        <v>757341691.2474508</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220">
@@ -2192,7 +2192,7 @@
         <v>1818</v>
       </c>
       <c r="B220" t="n">
-        <v>764037810.7480391</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221">
@@ -2200,7 +2200,7 @@
         <v>1819</v>
       </c>
       <c r="B221" t="n">
-        <v>770828151.8874</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222">
@@ -2208,7 +2208,7 @@
         <v>1820</v>
       </c>
       <c r="B222" t="n">
-        <v>777714083.703644</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223">
@@ -2216,7 +2216,7 @@
         <v>1821</v>
       </c>
       <c r="B223" t="n">
-        <v>784697000.7439305</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224">
@@ -2224,7 +2224,7 @@
         <v>1822</v>
       </c>
       <c r="B224" t="n">
-        <v>791778323.8136741</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225">
@@ -2232,7 +2232,7 @@
         <v>1823</v>
       </c>
       <c r="B225" t="n">
-        <v>798959500.7453711</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226">
@@ -2240,7 +2240,7 @@
         <v>1824</v>
       </c>
       <c r="B226" t="n">
-        <v>806242007.1872511</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227">
@@ -2248,7 +2248,7 @@
         <v>1825</v>
       </c>
       <c r="B227" t="n">
-        <v>813627347.4119941</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228">
@@ -2256,7 +2256,7 @@
         <v>1826</v>
       </c>
       <c r="B228" t="n">
-        <v>821117055.1457283</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229">
@@ -2264,7 +2264,7 @@
         <v>1827</v>
       </c>
       <c r="B229" t="n">
-        <v>828712694.4175199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230">
@@ -2272,7 +2272,7 @@
         <v>1828</v>
       </c>
       <c r="B230" t="n">
-        <v>836415860.4295774</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231">
@@ -2280,7 +2280,7 @@
         <v>1829</v>
       </c>
       <c r="B231" t="n">
-        <v>844228180.4483743</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232">
@@ -2288,7 +2288,7 @@
         <v>1830</v>
       </c>
       <c r="B232" t="n">
-        <v>852151314.7168897</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233">
@@ -2296,7 +2296,7 @@
         <v>1831</v>
       </c>
       <c r="B233" t="n">
-        <v>860186957.3881619</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234">
@@ -2304,7 +2304,7 @@
         <v>1832</v>
       </c>
       <c r="B234" t="n">
-        <v>868336837.4803432</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235">
@@ -2312,7 +2312,7 @@
         <v>1833</v>
       </c>
       <c r="B235" t="n">
-        <v>876602719.8534099</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236">
@@ -2320,7 +2320,7 @@
         <v>1834</v>
       </c>
       <c r="B236" t="n">
-        <v>884986406.2077085</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237">
@@ -2328,7 +2328,7 @@
         <v>1835</v>
       </c>
       <c r="B237" t="n">
-        <v>893489736.1044657</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238">
@@ -2336,7 +2336,7 @@
         <v>1836</v>
       </c>
       <c r="B238" t="n">
-        <v>902114588.0083833</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239">
@@ -2344,7 +2344,7 @@
         <v>1837</v>
       </c>
       <c r="B239" t="n">
-        <v>910862880.3524334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240">
@@ -2352,7 +2352,7 @@
         <v>1838</v>
       </c>
       <c r="B240" t="n">
-        <v>919736572.624928</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241">
@@ -2360,7 +2360,7 @@
         <v>1839</v>
       </c>
       <c r="B241" t="n">
-        <v>928737666.4789149</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242">
@@ -2368,7 +2368,7 @@
         <v>1840</v>
       </c>
       <c r="B242" t="n">
-        <v>937868206.8639324</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243">
@@ -2376,7 +2376,7 @@
         <v>1841</v>
       </c>
       <c r="B243" t="n">
-        <v>947130283.1801156</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244">
@@ -2384,7 +2384,7 @@
         <v>1842</v>
       </c>
       <c r="B244" t="n">
-        <v>956526030.4546111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245">
@@ -2392,7 +2392,7 @@
         <v>1843</v>
       </c>
       <c r="B245" t="n">
-        <v>966057630.540223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246">
@@ -2400,7 +2400,7 @@
         <v>1844</v>
       </c>
       <c r="B246" t="n">
-        <v>975727313.3361697</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247">
@@ -2408,7 +2408,7 @@
         <v>1845</v>
       </c>
       <c r="B247" t="n">
-        <v>985537358.0307863</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248">
@@ -2416,7 +2416,7 @@
         <v>1846</v>
       </c>
       <c r="B248" t="n">
-        <v>995490094.3659511</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249">
@@ -2424,7 +2424,7 @@
         <v>1847</v>
       </c>
       <c r="B249" t="n">
-        <v>1005587903.922967</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250">
@@ -2432,7 +2432,7 @@
         <v>1848</v>
       </c>
       <c r="B250" t="n">
-        <v>1015833221.429569</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251">
@@ -2440,7 +2440,7 @@
         <v>1849</v>
       </c>
       <c r="B251" t="n">
-        <v>1026228536.08767</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252">
@@ -2448,7 +2448,7 @@
         <v>1850</v>
       </c>
       <c r="B252" t="n">
-        <v>1036776392.921366</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253">
@@ -2456,7 +2456,7 @@
         <v>1851</v>
       </c>
       <c r="B253" t="n">
-        <v>1047479394.14469</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254">
@@ -2464,7 +2464,7 @@
         <v>1852</v>
       </c>
       <c r="B254" t="n">
-        <v>1058340200.548486</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255">
@@ -2472,7 +2472,7 @@
         <v>1853</v>
       </c>
       <c r="B255" t="n">
-        <v>1069361532.905716</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256">
@@ -2480,7 +2480,7 @@
         <v>1854</v>
       </c>
       <c r="B256" t="n">
-        <v>1080546173.394409</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257">
@@ -2488,7 +2488,7 @@
         <v>1855</v>
       </c>
       <c r="B257" t="n">
-        <v>1091896967.037375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258">
@@ -2496,7 +2496,7 @@
         <v>1856</v>
       </c>
       <c r="B258" t="n">
-        <v>1103416823.157711</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259">
@@ -2504,7 +2504,7 @@
         <v>1857</v>
       </c>
       <c r="B259" t="n">
-        <v>1115108716.848999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260">
@@ -2512,7 +2512,7 @@
         <v>1858</v>
       </c>
       <c r="B260" t="n">
-        <v>1126975690.458998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261">
@@ -2520,7 +2520,7 @@
         <v>1859</v>
       </c>
       <c r="B261" t="n">
-        <v>1139020855.085524</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262">
@@ -2528,7 +2528,7 @@
         <v>1860</v>
       </c>
       <c r="B262" t="n">
-        <v>1151247392.083056</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263">
@@ -2536,7 +2536,7 @@
         <v>1861</v>
       </c>
       <c r="B263" t="n">
-        <v>1163658554.578499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264">
@@ -2544,7 +2544,7 @@
         <v>1862</v>
       </c>
       <c r="B264" t="n">
-        <v>1176257668.994366</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265">
@@ -2552,7 +2552,7 @@
         <v>1863</v>
       </c>
       <c r="B265" t="n">
-        <v>1189048136.577563</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266">
@@ -2560,7 +2560,7 @@
         <v>1864</v>
       </c>
       <c r="B266" t="n">
-        <v>1202033434.931689</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267">
@@ -2568,7 +2568,7 @@
         <v>1865</v>
       </c>
       <c r="B267" t="n">
-        <v>1215217119.550718</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268">
@@ -2576,7 +2576,7 @@
         <v>1866</v>
       </c>
       <c r="B268" t="n">
-        <v>1228602825.351721</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269">
@@ -2584,7 +2584,7 @@
         <v>1867</v>
       </c>
       <c r="B269" t="n">
-        <v>1242194268.204051</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270">
@@ -2592,7 +2592,7 @@
         <v>1868</v>
       </c>
       <c r="B270" t="n">
-        <v>1255995246.452357</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271">
@@ -2600,7 +2600,7 @@
         <v>1869</v>
       </c>
       <c r="B271" t="n">
-        <v>1270009642.430459</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272">
@@ -2608,7 +2608,7 @@
         <v>1870</v>
       </c>
       <c r="B272" t="n">
-        <v>1284241423.963042</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273">
@@ -2616,7 +2616,7 @@
         <v>1871</v>
       </c>
       <c r="B273" t="n">
-        <v>1298694645.851844</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274">
@@ -2624,7 +2624,7 @@
         <v>1872</v>
       </c>
       <c r="B274" t="n">
-        <v>1313373451.342825</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275">
@@ -2632,7 +2632,7 @@
         <v>1873</v>
       </c>
       <c r="B275" t="n">
-        <v>1328282073.570602</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276">
@@ -2640,7 +2640,7 @@
         <v>1874</v>
       </c>
       <c r="B276" t="n">
-        <v>1343424836.976172</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277">
@@ -2648,7 +2648,7 @@
         <v>1875</v>
       </c>
       <c r="B277" t="n">
-        <v>1358806158.693748</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278">
@@ -2656,7 +2656,7 @@
         <v>1876</v>
       </c>
       <c r="B278" t="n">
-        <v>1374430549.902268</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279">
@@ -2664,7 +2664,7 @@
         <v>1877</v>
       </c>
       <c r="B279" t="n">
-        <v>1390302617.136914</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280">
@@ -2672,7 +2672,7 @@
         <v>1878</v>
       </c>
       <c r="B280" t="n">
-        <v>1406427063.555693</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281">
@@ -2680,7 +2680,7 @@
         <v>1879</v>
       </c>
       <c r="B281" t="n">
-        <v>1422808690.15591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282">
@@ -2688,7 +2688,7 @@
         <v>1880</v>
       </c>
       <c r="B282" t="n">
-        <v>1439452396.935088</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283">
@@ -2696,7 +2696,7 @@
         <v>1881</v>
       </c>
       <c r="B283" t="n">
-        <v>1456363183.990603</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284">
@@ -2704,7 +2704,7 @@
         <v>1882</v>
       </c>
       <c r="B284" t="n">
-        <v>1473546152.552072</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285">
@@ -2712,7 +2712,7 @@
         <v>1883</v>
       </c>
       <c r="B285" t="n">
-        <v>1491006505.940209</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286">
@@ -2720,7 +2720,7 @@
         <v>1884</v>
       </c>
       <c r="B286" t="n">
-        <v>1508749550.44564</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287">
@@ -2728,7 +2728,7 @@
         <v>1885</v>
       </c>
       <c r="B287" t="n">
-        <v>1526780696.120838</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288">
@@ -2736,7 +2736,7 @@
         <v>1886</v>
       </c>
       <c r="B288" t="n">
-        <v>1545105457.478087</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289">
@@ -2744,7 +2744,7 @@
         <v>1887</v>
       </c>
       <c r="B289" t="n">
-        <v>1563729454.086112</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290">
@@ -2752,7 +2752,7 @@
         <v>1888</v>
       </c>
       <c r="B290" t="n">
-        <v>1582658411.057714</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291">
@@ -2760,7 +2760,7 @@
         <v>1889</v>
       </c>
       <c r="B291" t="n">
-        <v>1601898159.420464</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292">
@@ -2768,7 +2768,7 @@
         <v>1890</v>
       </c>
       <c r="B292" t="n">
-        <v>1621454636.362272</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293">
@@ -2776,7 +2776,7 @@
         <v>1891</v>
       </c>
       <c r="B293" t="n">
-        <v>1641333885.343351</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294">
@@ -2784,7 +2784,7 @@
         <v>1892</v>
       </c>
       <c r="B294" t="n">
-        <v>1661542056.065829</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295">
@@ -2792,7 +2792,7 @@
         <v>1893</v>
       </c>
       <c r="B295" t="n">
-        <v>1682085404.292027</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296">
@@ -2800,7 +2800,7 @@
         <v>1894</v>
       </c>
       <c r="B296" t="n">
-        <v>1702970291.502161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297">
@@ -2808,7 +2808,7 @@
         <v>1895</v>
       </c>
       <c r="B297" t="n">
-        <v>1724203184.381999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298">
@@ -2816,7 +2816,7 @@
         <v>1896</v>
       </c>
       <c r="B298" t="n">
-        <v>1745790654.130767</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299">
@@ -2824,7 +2824,7 @@
         <v>1897</v>
       </c>
       <c r="B299" t="n">
-        <v>1767739375.579406</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300">
@@ -2832,7 +2832,7 @@
         <v>1898</v>
       </c>
       <c r="B300" t="n">
-        <v>1790056126.109089</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301">
@@ -2840,7 +2840,7 @@
         <v>1899</v>
       </c>
       <c r="B301" t="n">
-        <v>1812747784.359733</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302">
@@ -2848,7 +2848,7 @@
         <v>1900</v>
       </c>
       <c r="B302" t="n">
-        <v>1835821328.718055</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303">
@@ -2856,7 +2856,7 @@
         <v>1901</v>
       </c>
       <c r="B303" t="n">
-        <v>1859283835.574681</v>
+        <v>29168971.06642462</v>
       </c>
     </row>
     <row r="304">
@@ -2864,7 +2864,7 @@
         <v>1902</v>
       </c>
       <c r="B304" t="n">
-        <v>1883142477.339622</v>
+        <v>58791219.39275392</v>
       </c>
     </row>
     <row r="305">
@@ -2872,7 +2872,7 @@
         <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>1907404520.205388</v>
+        <v>88874426.49755873</v>
       </c>
     </row>
     <row r="306">
@@ -2880,7 +2880,7 @@
         <v>1904</v>
       </c>
       <c r="B306" t="n">
-        <v>1932077321.647013</v>
+        <v>119426371.0020093</v>
       </c>
     </row>
     <row r="307">
@@ -2888,7 +2888,7 @@
         <v>1905</v>
       </c>
       <c r="B307" t="n">
-        <v>1957168327.648185</v>
+        <v>150454926.2052194</v>
       </c>
     </row>
     <row r="308">
@@ -2896,7 +2896,7 @@
         <v>1906</v>
       </c>
       <c r="B308" t="n">
-        <v>1982685069.642742</v>
+        <v>181968057.3532576</v>
       </c>
     </row>
     <row r="309">
@@ -2904,7 +2904,7 @@
         <v>1907</v>
       </c>
       <c r="B309" t="n">
-        <v>2008635161.160866</v>
+        <v>213973818.5898039</v>
       </c>
     </row>
     <row r="310">
@@ -2912,7 +2912,7 @@
         <v>1908</v>
       </c>
       <c r="B310" t="n">
-        <v>2035026294.169408</v>
+        <v>246480349.576483</v>
       </c>
     </row>
     <row r="311">
@@ -2920,7 +2920,7 @@
         <v>1909</v>
       </c>
       <c r="B311" t="n">
-        <v>2061866235.095879</v>
+        <v>279495871.771022</v>
       </c>
     </row>
     <row r="312">
@@ -2928,7 +2928,7 @@
         <v>1910</v>
       </c>
       <c r="B312" t="n">
-        <v>2089162820.525966</v>
+        <v>313028684.3516133</v>
       </c>
     </row>
     <row r="313">
@@ -2936,7 +2936,7 @@
         <v>1911</v>
       </c>
       <c r="B313" t="n">
-        <v>2116923952.564555</v>
+        <v>347087159.7760499</v>
       </c>
     </row>
     <row r="314">
@@ -2944,7 +2944,7 @@
         <v>1912</v>
       </c>
       <c r="B314" t="n">
-        <v>2145157593.850608</v>
+        <v>381679738.9644697</v>
       </c>
     </row>
     <row r="315">
@@ -2952,7 +2952,7 @@
         <v>1913</v>
       </c>
       <c r="B315" t="n">
-        <v>2173871762.216625</v>
+        <v>416814926.0949376</v>
       </c>
     </row>
     <row r="316">
@@ -2960,7 +2960,7 @@
         <v>1914</v>
       </c>
       <c r="B316" t="n">
-        <v>2203074524.983774</v>
+        <v>452501283.0014567</v>
       </c>
     </row>
     <row r="317">
@@ -2968,7 +2968,7 @@
         <v>1915</v>
       </c>
       <c r="B317" t="n">
-        <v>2232773992.884324</v>
+        <v>488747423.1644644</v>
       </c>
     </row>
     <row r="318">
@@ -2976,7 +2976,7 @@
         <v>1916</v>
       </c>
       <c r="B318" t="n">
-        <v>2262978313.603526</v>
+        <v>525562005.2844399</v>
       </c>
     </row>
     <row r="319">
@@ -2984,7 +2984,7 @@
         <v>1917</v>
       </c>
       <c r="B319" t="n">
-        <v>2293695664.933714</v>
+        <v>562953726.4297929</v>
       </c>
     </row>
     <row r="320">
@@ -2992,7 +2992,7 @@
         <v>1918</v>
       </c>
       <c r="B320" t="n">
-        <v>2324934247.534025</v>
+        <v>600931314.7509103</v>
       </c>
     </row>
     <row r="321">
@@ -3000,7 +3000,7 @@
         <v>1919</v>
       </c>
       <c r="B321" t="n">
-        <v>2356702277.29003</v>
+        <v>639503521.753009</v>
       </c>
     </row>
     <row r="322">
@@ -3008,7 +3008,7 @@
         <v>1920</v>
       </c>
       <c r="B322" t="n">
-        <v>2389007977.268206</v>
+        <v>678679114.1211914</v>
       </c>
     </row>
     <row r="323">
@@ -3016,7 +3016,7 @@
         <v>1921</v>
       </c>
       <c r="B323" t="n">
-        <v>2421859569.261254</v>
+        <v>718466865.0920875</v>
       </c>
     </row>
     <row r="324">
@@ -3024,7 +3024,7 @@
         <v>1922</v>
       </c>
       <c r="B324" t="n">
-        <v>2455265264.921091</v>
+        <v>758875545.3673648</v>
       </c>
     </row>
     <row r="325">
@@ -3032,7 +3032,7 @@
         <v>1923</v>
       </c>
       <c r="B325" t="n">
-        <v>2489233256.477547</v>
+        <v>799913913.5655406</v>
       </c>
     </row>
     <row r="326">
@@ -3040,7 +3040,7 @@
         <v>1924</v>
       </c>
       <c r="B326" t="n">
-        <v>2523771707.0418</v>
+        <v>841590706.2095883</v>
       </c>
     </row>
     <row r="327">
@@ -3048,7 +3048,7 @@
         <v>1925</v>
       </c>
       <c r="B327" t="n">
-        <v>2558888740.494839</v>
+        <v>883914627.2491076</v>
       </c>
     </row>
     <row r="328">
@@ -3056,7 +3056,7 @@
         <v>1926</v>
       </c>
       <c r="B328" t="n">
-        <v>2594592430.962573</v>
+        <v>926894337.1171376</v>
       </c>
     </row>
     <row r="329">
@@ -3064,7 +3064,7 @@
         <v>1927</v>
       </c>
       <c r="B329" t="n">
-        <v>2630890791.880472</v>
+        <v>970538441.3230584</v>
       </c>
     </row>
     <row r="330">
@@ -3072,7 +3072,7 @@
         <v>1928</v>
       </c>
       <c r="B330" t="n">
-        <v>2667791764.652132</v>
+        <v>1014855478.584517</v>
       </c>
     </row>
     <row r="331">
@@ -3080,7 +3080,7 @@
         <v>1929</v>
       </c>
       <c r="B331" t="n">
-        <v>2705303206.907649</v>
+        <v>1059853908.50287</v>
       </c>
     </row>
     <row r="332">
@@ -3088,7 +3088,7 @@
         <v>1930</v>
       </c>
       <c r="B332" t="n">
-        <v>2743432880.369253</v>
+        <v>1105542098.788281</v>
       </c>
     </row>
     <row r="333">
@@ -3096,7 +3096,7 @@
         <v>1931</v>
       </c>
       <c r="B333" t="n">
-        <v>2782188438.33329</v>
+        <v>1151928312.042248</v>
       </c>
     </row>
     <row r="334">
@@ -3104,7 +3104,7 @@
         <v>1932</v>
       </c>
       <c r="B334" t="n">
-        <v>2821577412.779401</v>
+        <v>1199020692.10724</v>
       </c>
     </row>
     <row r="335">
@@ -3112,7 +3112,7 @@
         <v>1933</v>
       </c>
       <c r="B335" t="n">
-        <v>2861607201.119454</v>
+        <v>1246827249.994843</v>
       </c>
     </row>
     <row r="336">
@@ -3120,7 +3120,7 @@
         <v>1934</v>
       </c>
       <c r="B336" t="n">
-        <v>2902285052.60065</v>
+        <v>1295355849.405805</v>
       </c>
     </row>
     <row r="337">
@@ -3128,7 +3128,7 @@
         <v>1935</v>
       </c>
       <c r="B337" t="n">
-        <v>2943618054.379124</v>
+        <v>1344614191.857341</v>
       </c>
     </row>
     <row r="338">
@@ -3136,7 +3136,7 @@
         <v>1936</v>
       </c>
       <c r="B338" t="n">
-        <v>2985613117.282215</v>
+        <v>1394609801.435022</v>
       </c>
     </row>
     <row r="339">
@@ -3144,7 +3144,7 @@
         <v>1937</v>
       </c>
       <c r="B339" t="n">
-        <v>3028276961.279542</v>
+        <v>1445350009.188687</v>
       </c>
     </row>
     <row r="340">
@@ -3152,7 +3152,7 @@
         <v>1938</v>
       </c>
       <c r="B340" t="n">
-        <v>3071616100.685135</v>
+        <v>1496841937.193955</v>
       </c>
     </row>
     <row r="341">
@@ -3160,7 +3160,7 @@
         <v>1939</v>
       </c>
       <c r="B341" t="n">
-        <v>3115636829.114661</v>
+        <v>1549092482.302951</v>
       </c>
     </row>
     <row r="342">
@@ -3168,7 +3168,7 @@
         <v>1940</v>
       </c>
       <c r="B342" t="n">
-        <v>3160345204.223972</v>
+        <v>1602108299.610108</v>
       </c>
     </row>
     <row r="343">
@@ -3176,7 +3176,7 @@
         <v>1941</v>
       </c>
       <c r="B343" t="n">
-        <v>3205747032.257137</v>
+        <v>1655895785.661032</v>
       </c>
     </row>
     <row r="344">
@@ -3184,7 +3184,7 @@
         <v>1942</v>
       </c>
       <c r="B344" t="n">
-        <v>3251847852.434142</v>
+        <v>1710461061.434589</v>
       </c>
     </row>
     <row r="345">
@@ -3192,7 +3192,7 @@
         <v>1943</v>
       </c>
       <c r="B345" t="n">
-        <v>3298652921.210441</v>
+        <v>1765809955.130544</v>
       </c>
     </row>
     <row r="346">
@@ -3200,7 +3200,7 @@
         <v>1944</v>
       </c>
       <c r="B346" t="n">
-        <v>3346167196.442428</v>
+        <v>1821947984.797151</v>
       </c>
     </row>
     <row r="347">
@@ -3208,7 +3208,7 @@
         <v>1945</v>
       </c>
       <c r="B347" t="n">
-        <v>3394395321.494941</v>
+        <v>1878880340.835336</v>
       </c>
     </row>
     <row r="348">
@@ -3216,7 +3216,7 @@
         <v>1946</v>
       </c>
       <c r="B348" t="n">
-        <v>3443341609.328569</v>
+        <v>1936611868.417949</v>
       </c>
     </row>
     <row r="349">
@@ -3224,7 +3224,7 @@
         <v>1947</v>
       </c>
       <c r="B349" t="n">
-        <v>3493010026.606489</v>
+        <v>1995147049.864776</v>
       </c>
     </row>
     <row r="350">
@@ -3232,7 +3232,7 @@
         <v>1948</v>
       </c>
       <c r="B350" t="n">
-        <v>3543404177.862126</v>
+        <v>2054489987.015719</v>
       </c>
     </row>
     <row r="351">
@@ -3240,7 +3240,7 @@
         <v>1949</v>
       </c>
       <c r="B351" t="n">
-        <v>3594527289.770608</v>
+        <v>2114644383.646532</v>
       </c>
     </row>
     <row r="352">
@@ -3248,7 +3248,7 @@
         <v>1950</v>
       </c>
       <c r="B352" t="n">
-        <v>3646382195.568377</v>
+        <v>2175613527.973079</v>
       </c>
     </row>
     <row r="353">
@@ -3256,7 +3256,7 @@
         <v>1951</v>
       </c>
       <c r="B353" t="n">
-        <v>3698971319.666801</v>
+        <v>2237400275.291818</v>
       </c>
     </row>
     <row r="354">
@@ -3264,7 +3264,7 @@
         <v>1952</v>
       </c>
       <c r="B354" t="n">
-        <v>3752296662.506702</v>
+        <v>2300007030.805539</v>
       </c>
     </row>
     <row r="355">
@@ -3272,7 +3272,7 @@
         <v>1953</v>
       </c>
       <c r="B355" t="n">
-        <v>3806359785.70188</v>
+        <v>2363435732.684841</v>
       </c>
     </row>
     <row r="356">
@@ -3280,7 +3280,7 @@
         <v>1954</v>
       </c>
       <c r="B356" t="n">
-        <v>3861161797.520563</v>
+        <v>2427687835.416883</v>
       </c>
     </row>
     <row r="357">
@@ -3288,7 +3288,7 @@
         <v>1955</v>
       </c>
       <c r="B357" t="n">
-        <v>3916703338.754424</v>
+        <v>2492764293.493985</v>
       </c>
     </row>
     <row r="358">
@@ -3296,7 +3296,7 @@
         <v>1956</v>
       </c>
       <c r="B358" t="n">
-        <v>3984682261.977211</v>
+        <v>2570363238.447273</v>
       </c>
     </row>
     <row r="359">
@@ -3304,7 +3304,7 @@
         <v>1957</v>
       </c>
       <c r="B359" t="n">
-        <v>4053551940.664236</v>
+        <v>2648938285.700133</v>
       </c>
     </row>
     <row r="360">
@@ -3312,7 +3312,7 @@
         <v>1958</v>
       </c>
       <c r="B360" t="n">
-        <v>4123311798.291022</v>
+        <v>2728489061.363492</v>
       </c>
     </row>
     <row r="361">
@@ -3320,7 +3320,7 @@
         <v>1959</v>
       </c>
       <c r="B361" t="n">
-        <v>4193960660.109431</v>
+        <v>2809014551.675253</v>
       </c>
     </row>
     <row r="362">
@@ -3328,7 +3328,7 @@
         <v>1960</v>
       </c>
       <c r="B362" t="n">
-        <v>4265496740.045152</v>
+        <v>2890513087.532095</v>
       </c>
     </row>
     <row r="363">
@@ -3336,7 +3336,7 @@
         <v>1961</v>
       </c>
       <c r="B363" t="n">
-        <v>4337917628.412862</v>
+        <v>2972982329.814586</v>
       </c>
     </row>
     <row r="364">
@@ -3344,7 +3344,7 @@
         <v>1962</v>
       </c>
       <c r="B364" t="n">
-        <v>4411220280.506002</v>
+        <v>3056419255.567338</v>
       </c>
     </row>
     <row r="365">
@@ -3352,7 +3352,7 @@
         <v>1963</v>
       </c>
       <c r="B365" t="n">
-        <v>4485401006.116335</v>
+        <v>3140820145.094602</v>
       </c>
     </row>
     <row r="366">
@@ -3360,7 +3360,7 @@
         <v>1964</v>
       </c>
       <c r="B366" t="n">
-        <v>4560455460.036959</v>
+        <v>3226180570.03037</v>
       </c>
     </row>
     <row r="367">
@@ -3368,7 +3368,7 @@
         <v>1965</v>
       </c>
       <c r="B367" t="n">
-        <v>4636378633.60038</v>
+        <v>3312495382.440287</v>
       </c>
     </row>
     <row r="368">
@@ -3376,7 +3376,7 @@
         <v>1966</v>
       </c>
       <c r="B368" t="n">
-        <v>4713164847.30077</v>
+        <v>3399758705.010432</v>
       </c>
     </row>
     <row r="369">
@@ -3384,7 +3384,7 @@
         <v>1967</v>
       </c>
       <c r="B369" t="n">
-        <v>4790807744.546971</v>
+        <v>3487963922.375803</v>
       </c>
     </row>
     <row r="370">
@@ -3392,7 +3392,7 @@
         <v>1968</v>
       </c>
       <c r="B370" t="n">
-        <v>4869300286.58978</v>
+        <v>3577103673.638399</v>
       </c>
     </row>
     <row r="371">
@@ -3400,7 +3400,7 @@
         <v>1969</v>
       </c>
       <c r="B371" t="n">
-        <v>4948634748.663688</v>
+        <v>3667169846.121826</v>
       </c>
     </row>
     <row r="372">
@@ -3408,7 +3408,7 @@
         <v>1970</v>
       </c>
       <c r="B372" t="n">
-        <v>5028802717.379797</v>
+        <v>3758153570.406016</v>
       </c>
     </row>
     <row r="373">
@@ -3416,7 +3416,7 @@
         <v>1971</v>
       </c>
       <c r="B373" t="n">
-        <v>5077955292.845696</v>
+        <v>3818205420.12492</v>
       </c>
     </row>
     <row r="374">
@@ -3424,7 +3424,7 @@
         <v>1972</v>
       </c>
       <c r="B374" t="n">
-        <v>5127587909.945079</v>
+        <v>3878820230.967291</v>
       </c>
     </row>
     <row r="375">
@@ -3432,7 +3432,7 @@
         <v>1973</v>
       </c>
       <c r="B375" t="n">
-        <v>5177692372.893671</v>
+        <v>3939989133.00454</v>
       </c>
     </row>
     <row r="376">
@@ -3440,7 +3440,7 @@
         <v>1974</v>
       </c>
       <c r="B376" t="n">
-        <v>5228259991.690424</v>
+        <v>4001702684.972258</v>
       </c>
     </row>
     <row r="377">
@@ -3448,7 +3448,7 @@
         <v>1975</v>
       </c>
       <c r="B377" t="n">
-        <v>5279281583.192797</v>
+        <v>4063950873.241882</v>
       </c>
     </row>
     <row r="378">
@@ -3456,7 +3456,7 @@
         <v>1976</v>
       </c>
       <c r="B378" t="n">
-        <v>5330747473.040835</v>
+        <v>4126723111.715204</v>
       </c>
     </row>
     <row r="379">
@@ -3464,7 +3464,7 @@
         <v>1977</v>
       </c>
       <c r="B379" t="n">
-        <v>5382647498.432894</v>
+        <v>4190008242.652295</v>
       </c>
     </row>
     <row r="380">
@@ -3472,7 +3472,7 @@
         <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>5434971011.75249</v>
+        <v>4253794538.440477</v>
       </c>
     </row>
     <row r="381">
@@ -3480,7 +3480,7 @@
         <v>1979</v>
       </c>
       <c r="B381" t="n">
-        <v>5487706885.042855</v>
+        <v>4318069704.308847</v>
       </c>
     </row>
     <row r="382">
@@ -3488,7 +3488,7 @@
         <v>1980</v>
       </c>
       <c r="B382" t="n">
-        <v>5540843515.322532</v>
+        <v>4382820881.989694</v>
       </c>
     </row>
     <row r="383">
@@ -3496,7 +3496,7 @@
         <v>1981</v>
       </c>
       <c r="B383" t="n">
-        <v>5569900139.928828</v>
+        <v>4423565963.521686</v>
       </c>
     </row>
     <row r="384">
@@ -3504,7 +3504,7 @@
         <v>1982</v>
       </c>
       <c r="B384" t="n">
-        <v>5599120989.210577</v>
+        <v>4464547742.524136</v>
       </c>
     </row>
     <row r="385">
@@ -3512,7 +3512,7 @@
         <v>1983</v>
       </c>
       <c r="B385" t="n">
-        <v>5628495855.863245</v>
+        <v>4505754482.243301</v>
       </c>
     </row>
     <row r="386">
@@ -3520,7 +3520,7 @@
         <v>1984</v>
       </c>
       <c r="B386" t="n">
-        <v>5658014181.023872</v>
+        <v>4547174000.495899</v>
       </c>
     </row>
     <row r="387">
@@ -3528,7 +3528,7 @@
         <v>1985</v>
       </c>
       <c r="B387" t="n">
-        <v>5687665057.571909</v>
+        <v>4588793671.96349</v>
       </c>
     </row>
     <row r="388">
@@ -3536,7 +3536,7 @@
         <v>1986</v>
       </c>
       <c r="B388" t="n">
-        <v>5717437233.816079</v>
+        <v>4630600431.025314</v>
       </c>
     </row>
     <row r="389">
@@ -3544,7 +3544,7 @@
         <v>1987</v>
       </c>
       <c r="B389" t="n">
-        <v>5747319117.553486</v>
+        <v>4672580775.122935</v>
       </c>
     </row>
     <row r="390">
@@ -3552,7 +3552,7 @@
         <v>1988</v>
       </c>
       <c r="B390" t="n">
-        <v>5777298780.48706</v>
+        <v>4714720768.649725</v>
       </c>
     </row>
     <row r="391">
@@ -3560,7 +3560,7 @@
         <v>1989</v>
       </c>
       <c r="B391" t="n">
-        <v>5807363962.987238</v>
+        <v>4757006047.357859</v>
       </c>
     </row>
     <row r="392">
@@ -3568,7 +3568,7 @@
         <v>1990</v>
       </c>
       <c r="B392" t="n">
-        <v>5837502079.184451</v>
+        <v>4799421823.275569</v>
       </c>
     </row>
     <row r="393">
@@ -3576,7 +3576,7 @@
         <v>1991</v>
       </c>
       <c r="B393" t="n">
-        <v>5900013081.677393</v>
+        <v>4874265749.425773</v>
       </c>
     </row>
     <row r="394">
@@ -3584,7 +3584,7 @@
         <v>1992</v>
       </c>
       <c r="B394" t="n">
-        <v>5962791674.97856</v>
+        <v>4949430133.473125</v>
       </c>
     </row>
     <row r="395">
@@ -3592,7 +3592,7 @@
         <v>1993</v>
       </c>
       <c r="B395" t="n">
-        <v>6025820177.946781</v>
+        <v>5024894800.554424</v>
       </c>
     </row>
     <row r="396">
@@ -3600,7 +3600,7 @@
         <v>1994</v>
       </c>
       <c r="B396" t="n">
-        <v>6089080585.437931</v>
+        <v>5100639155.528324</v>
       </c>
     </row>
     <row r="397">
@@ -3608,7 +3608,7 @@
         <v>1995</v>
       </c>
       <c r="B397" t="n">
-        <v>6152554586.125959</v>
+        <v>5176642201.600743</v>
       </c>
     </row>
     <row r="398">
@@ -3616,7 +3616,7 @@
         <v>1996</v>
       </c>
       <c r="B398" t="n">
-        <v>6216223580.859674</v>
+        <v>5252882559.695244</v>
       </c>
     </row>
     <row r="399">
@@ -3624,7 +3624,7 @@
         <v>1997</v>
       </c>
       <c r="B399" t="n">
-        <v>6280068701.526218</v>
+        <v>5329338488.542479</v>
       </c>
     </row>
     <row r="400">
@@ -3632,7 +3632,7 @@
         <v>1998</v>
       </c>
       <c r="B400" t="n">
-        <v>6344070830.393755</v>
+        <v>5405987905.463942</v>
       </c>
     </row>
     <row r="401">
@@ -3640,7 +3640,7 @@
         <v>1999</v>
       </c>
       <c r="B401" t="n">
-        <v>6408210619.908341</v>
+        <v>5482808407.827065</v>
       </c>
     </row>
     <row r="402">
@@ -3648,7 +3648,7 @@
         <v>2000</v>
       </c>
       <c r="B402" t="n">
-        <v>6472468512.92214</v>
+        <v>5559777295.15028</v>
       </c>
     </row>
     <row r="403">
@@ -3656,7 +3656,7 @@
         <v>2001</v>
       </c>
       <c r="B403" t="n">
-        <v>6528828817.80188</v>
+        <v>5628875646.307813</v>
       </c>
     </row>
     <row r="404">
@@ -3664,7 +3664,7 @@
         <v>2002</v>
       </c>
       <c r="B404" t="n">
-        <v>6585225695.208141</v>
+        <v>5698034308.624913</v>
       </c>
     </row>
     <row r="405">
@@ -3672,7 +3672,7 @@
         <v>2003</v>
       </c>
       <c r="B405" t="n">
-        <v>6641639973.734701</v>
+        <v>5767230716.052298</v>
       </c>
     </row>
     <row r="406">
@@ -3680,7 +3680,7 @@
         <v>2004</v>
       </c>
       <c r="B406" t="n">
-        <v>6698052333.560192</v>
+        <v>5836442075.570866</v>
       </c>
     </row>
     <row r="407">
@@ -3688,7 +3688,7 @@
         <v>2005</v>
       </c>
       <c r="B407" t="n">
-        <v>6754443325.620531</v>
+        <v>5905645389.333227</v>
       </c>
     </row>
     <row r="408">
@@ -3696,7 +3696,7 @@
         <v>2006</v>
       </c>
       <c r="B408" t="n">
-        <v>6810793391.15343</v>
+        <v>5974817477.390794</v>
       </c>
     </row>
     <row r="409">
@@ -3704,7 +3704,7 @@
         <v>2007</v>
       </c>
       <c r="B409" t="n">
-        <v>6867082881.625766</v>
+        <v>6043935001.013852</v>
       </c>
     </row>
     <row r="410">
@@ -3712,7 +3712,7 @@
         <v>2008</v>
       </c>
       <c r="B410" t="n">
-        <v>6923292079.058155</v>
+        <v>6112974486.61493</v>
       </c>
     </row>
     <row r="411">
@@ -3720,7 +3720,7 @@
         <v>2009</v>
       </c>
       <c r="B411" t="n">
-        <v>6979401216.765257</v>
+        <v>6181912350.289228</v>
       </c>
     </row>
     <row r="412">
@@ -3728,7 +3728,7 @@
         <v>2010</v>
       </c>
       <c r="B412" t="n">
-        <v>7035390500.533822</v>
+        <v>6250724922.988564</v>
       </c>
     </row>
     <row r="413">
@@ -3736,7 +3736,7 @@
         <v>2011</v>
       </c>
       <c r="B413" t="n">
-        <v>7090940057.342511</v>
+        <v>6319088403.426763</v>
       </c>
     </row>
     <row r="414">
@@ -3744,7 +3744,7 @@
         <v>2012</v>
       </c>
       <c r="B414" t="n">
-        <v>7146328943.721554</v>
+        <v>6387277870.807488</v>
       </c>
     </row>
     <row r="415">
@@ -3752,7 +3752,7 @@
         <v>2013</v>
       </c>
       <c r="B415" t="n">
-        <v>7201537433.266566</v>
+        <v>6455269576.881297</v>
       </c>
     </row>
     <row r="416">
@@ -3760,7 +3760,7 @@
         <v>2014</v>
       </c>
       <c r="B416" t="n">
-        <v>7256545859.792903</v>
+        <v>6523039793.809959</v>
       </c>
     </row>
     <row r="417">
@@ -3768,7 +3768,7 @@
         <v>2015</v>
       </c>
       <c r="B417" t="n">
-        <v>7311334641.034265</v>
+        <v>6590564842.732728</v>
       </c>
     </row>
     <row r="418">
@@ -3776,7 +3776,7 @@
         <v>2016</v>
       </c>
       <c r="B418" t="n">
-        <v>7365884302.961858</v>
+        <v>6657821123.101306</v>
       </c>
     </row>
     <row r="419">
@@ -3784,7 +3784,7 @@
         <v>2017</v>
       </c>
       <c r="B419" t="n">
-        <v>7420175504.755412</v>
+        <v>6724785142.804435</v>
       </c>
     </row>
     <row r="420">
@@ -3792,7 +3792,7 @@
         <v>2018</v>
       </c>
       <c r="B420" t="n">
-        <v>7474189064.455079</v>
+        <v>6791433549.100411</v>
       </c>
     </row>
     <row r="421">
@@ -3800,7 +3800,7 @@
         <v>2019</v>
       </c>
       <c r="B421" t="n">
-        <v>7527905985.319976</v>
+        <v>6857743160.371743</v>
       </c>
     </row>
     <row r="422">
@@ -3808,7 +3808,7 @@
         <v>2020</v>
       </c>
       <c r="B422" t="n">
-        <v>7581307482.914174</v>
+        <v>6923690998.71082</v>
       </c>
     </row>
     <row r="423">
@@ -3816,7 +3816,7 @@
         <v>2021</v>
       </c>
       <c r="B423" t="n">
-        <v>7634375012.935181</v>
+        <v>6989254323.339246</v>
       </c>
     </row>
     <row r="424">
@@ -3824,7 +3824,7 @@
         <v>2022</v>
       </c>
       <c r="B424" t="n">
-        <v>7687090299.7925</v>
+        <v>7054410664.855399</v>
       </c>
     </row>
     <row r="425">
@@ -3832,7 +3832,7 @@
         <v>2023</v>
       </c>
       <c r="B425" t="n">
-        <v>7739435365.935258</v>
+        <v>7119137860.29592</v>
       </c>
     </row>
     <row r="426">
@@ -3840,7 +3840,7 @@
         <v>2024</v>
       </c>
       <c r="B426" t="n">
-        <v>7791392561.917584</v>
+        <v>7183414088.986096</v>
       </c>
     </row>
     <row r="427">
@@ -3848,7 +3848,7 @@
         <v>2025</v>
       </c>
       <c r="B427" t="n">
-        <v>7842944597.179232</v>
+        <v>7247217909.142545</v>
       </c>
     </row>
     <row r="428">
@@ -3856,7 +3856,7 @@
         <v>2026</v>
       </c>
       <c r="B428" t="n">
-        <v>7894074571.506033</v>
+        <v>7310528295.178492</v>
       </c>
     </row>
     <row r="429">
@@ -3864,7 +3864,7 @@
         <v>2027</v>
       </c>
       <c r="B429" t="n">
-        <v>7944766007.120725</v>
+        <v>7373324675.647616</v>
       </c>
     </row>
     <row r="430">
@@ -3872,7 +3872,7 @@
         <v>2028</v>
       </c>
       <c r="B430" t="n">
-        <v>7995002881.339713</v>
+        <v>7435586971.747218</v>
       </c>
     </row>
     <row r="431">
@@ -3880,7 +3880,7 @@
         <v>2029</v>
       </c>
       <c r="B431" t="n">
-        <v>8044769659.715111</v>
+        <v>7497295636.285242</v>
       </c>
     </row>
     <row r="432">
@@ -3888,7 +3888,7 @@
         <v>2030</v>
       </c>
       <c r="B432" t="n">
-        <v>8094051329.564299</v>
+        <v>7558431692.99842</v>
       </c>
     </row>
     <row r="433">
@@ -3896,7 +3896,7 @@
         <v>2031</v>
       </c>
       <c r="B433" t="n">
-        <v>8142833433.771886</v>
+        <v>7618976776.091414</v>
       </c>
     </row>
     <row r="434">
@@ -3904,7 +3904,7 @@
         <v>2032</v>
       </c>
       <c r="B434" t="n">
-        <v>8191102104.730627</v>
+        <v>7678913169.84861</v>
       </c>
     </row>
     <row r="435">
@@ -3912,7 +3912,7 @@
         <v>2033</v>
       </c>
       <c r="B435" t="n">
-        <v>8238844098.269916</v>
+        <v>7738223848.152268</v>
       </c>
     </row>
     <row r="436">
@@ -3920,7 +3920,7 @@
         <v>2034</v>
       </c>
       <c r="B436" t="n">
-        <v>8286046827.401918</v>
+        <v>7796892513.722472</v>
       </c>
     </row>
     <row r="437">
@@ -3928,7 +3928,7 @@
         <v>2035</v>
       </c>
       <c r="B437" t="n">
-        <v>8332698395.698337</v>
+        <v>7854903636.877271</v>
       </c>
     </row>
     <row r="438">
@@ -3936,7 +3936,7 @@
         <v>2036</v>
       </c>
       <c r="B438" t="n">
-        <v>8378787630.093056</v>
+        <v>7912242493.594046</v>
       </c>
     </row>
     <row r="439">
@@ -3944,7 +3944,7 @@
         <v>2037</v>
       </c>
       <c r="B439" t="n">
-        <v>8424304112.890718</v>
+        <v>7968895202.638242</v>
       </c>
     </row>
     <row r="440">
@@ -3952,7 +3952,7 @@
         <v>2038</v>
       </c>
       <c r="B440" t="n">
-        <v>8469238212.746228</v>
+        <v>8024848761.510782</v>
       </c>
     </row>
     <row r="441">
@@ -3960,7 +3960,7 @@
         <v>2039</v>
       </c>
       <c r="B441" t="n">
-        <v>8513581114.367667</v>
+        <v>8080091080.953601</v>
       </c>
     </row>
     <row r="442">
@@ -3968,7 +3968,7 @@
         <v>2040</v>
       </c>
       <c r="B442" t="n">
-        <v>8557324846.684534</v>
+        <v>8134611017.742414</v>
       </c>
     </row>
     <row r="443">
@@ -3976,7 +3976,7 @@
         <v>2041</v>
       </c>
       <c r="B443" t="n">
-        <v>8600462309.214813</v>
+        <v>8188398405.488072</v>
       </c>
     </row>
     <row r="444">
@@ -3984,7 +3984,7 @@
         <v>2042</v>
       </c>
       <c r="B444" t="n">
-        <v>8642987296.3592</v>
+        <v>8241444083.163219</v>
       </c>
     </row>
     <row r="445">
@@ -3992,7 +3992,7 @@
         <v>2043</v>
       </c>
       <c r="B445" t="n">
-        <v>8684894519.348305</v>
+        <v>8293739921.069029</v>
       </c>
     </row>
     <row r="446">
@@ -4000,7 +4000,7 @@
         <v>2044</v>
       </c>
       <c r="B446" t="n">
-        <v>8726179625.569881</v>
+        <v>8345278843.958698</v>
       </c>
     </row>
     <row r="447">
@@ -4008,7 +4008,7 @@
         <v>2045</v>
       </c>
       <c r="B447" t="n">
-        <v>8766839215.007626</v>
+        <v>8396054851.039561</v>
       </c>
     </row>
     <row r="448">
@@ -4016,7 +4016,7 @@
         <v>2046</v>
       </c>
       <c r="B448" t="n">
-        <v>8806870853.531363</v>
+        <v>8446063032.584667</v>
       </c>
     </row>
     <row r="449">
@@ -4024,7 +4024,7 @@
         <v>2047</v>
       </c>
       <c r="B449" t="n">
-        <v>8846273082.791189</v>
+        <v>8495299582.898228</v>
       </c>
     </row>
     <row r="450">
@@ -4032,7 +4032,7 @@
         <v>2048</v>
       </c>
       <c r="B450" t="n">
-        <v>8885045426.483879</v>
+        <v>8543761809.395732</v>
       </c>
     </row>
     <row r="451">
@@ -4040,7 +4040,7 @@
         <v>2049</v>
       </c>
       <c r="B451" t="n">
-        <v>8923188392.780537</v>
+        <v>8591448137.581196</v>
       </c>
     </row>
     <row r="452">
@@ -4048,7 +4048,7 @@
         <v>2050</v>
       </c>
       <c r="B452" t="n">
-        <v>8960703472.728523</v>
+        <v>8638358111.728783</v>
       </c>
     </row>
   </sheetData>
